--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.09653924486697275</v>
+        <v>0.09582127598589384</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003994519334745338</v>
+        <v>0.007438574530275075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05973519692737136</v>
+        <v>0.05330286388278739</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04344293887714273</v>
+        <v>0.05060750549093596</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02387738641548642</v>
+        <v>0.01777834814970522</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04537822266160595</v>
+        <v>0.06215644920011005</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03621589707900374</v>
+        <v>0.002310262254464411</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004818066403806079</v>
+        <v>0.02685312872425316</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01874835054895234</v>
+        <v>0.002249595297802431</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02167972684228901</v>
+        <v>0.02467473717473666</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01820247857623191</v>
+        <v>0.04829753634830677</v>
       </c>
       <c r="P2" t="n">
-        <v>0.004855690681437548</v>
+        <v>0.01887357255496649</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07302378413508201</v>
+        <v>0.01762576104666707</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02961125228253401</v>
+        <v>0.04109394607506053</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03124095196738306</v>
+        <v>0.01978201190667042</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04878949411613231</v>
+        <v>0.06809349296376499</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04283550658816752</v>
+        <v>0.007811596325574977</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03459400234477533</v>
+        <v>0.05055889730483643</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02935929814999724</v>
+        <v>0.0005202339272174253</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0667272266608894</v>
+        <v>0.06700718347409644</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01925591174751765</v>
+        <v>0.02148078668763307</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0602358225812957</v>
+        <v>0.005089814697395648</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0212919798777546</v>
+        <v>0.03044002807980898</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06716753186983325</v>
+        <v>0.05281472967017108</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.05105131022356989</v>
+        <v>0.06620974473015886</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02661234849712581</v>
+        <v>0.06546468565662364</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.03493305297480099</v>
+        <v>0.06259765000115139</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.03641467993188652</v>
+        <v>0.06533375379819656</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04590737170318238</v>
+        <v>0.04353311004662893</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.08799116618568406</v>
+        <v>0.04128234669994367</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1194062233619517</v>
+        <v>0.117253522094997</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04112997648373878</v>
+        <v>0.02452043085692839</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001471762689091579</v>
+        <v>0.003061523962309898</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02663032049388077</v>
+        <v>0.01667838013414361</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0629712896173176</v>
+        <v>0.02826357341070095</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04705418732121082</v>
+        <v>0.05697389007917712</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05037506602908193</v>
+        <v>0.02359824453567795</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06498623584097925</v>
+        <v>0.08047131422694108</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03826981026571238</v>
+        <v>0.02720571005017069</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01847750063160911</v>
+        <v>0.08046270273670235</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05915977039400547</v>
+        <v>0.08179819818466165</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00377047655901089</v>
+        <v>0.02969632983100218</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02011329035506965</v>
+        <v>0.05139962781896994</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05232042998981015</v>
+        <v>0.01420871148726222</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003092371748173167</v>
+        <v>0.02823499004369319</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00112546476478684</v>
+        <v>0.04442190951057648</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04055659677221314</v>
+        <v>0.01924113685353508</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05475180052154678</v>
+        <v>0.06044233674378615</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05390692035530422</v>
+        <v>0.008643947574485859</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03687849620725143</v>
+        <v>0.02435173140042567</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.05143366334636247</v>
+        <v>0.05972663249610562</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02218789360411685</v>
+        <v>0.03611422458586953</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03318568044976346</v>
+        <v>0.0476630445615013</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.06588859072162363</v>
+        <v>0.02703711873684003</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.06671351114317742</v>
+        <v>0.01635819033033377</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.008482813578611779</v>
+        <v>0.01166047965619269</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.04881742802117097</v>
+        <v>0.02263278577088984</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.01359436409074162</v>
+        <v>0.0254603321502371</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01265428800463773</v>
+        <v>0.04967250227087967</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1576577721698144</v>
+        <v>0.115845973951684</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1359575744451733</v>
+        <v>0.14114426299372</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002680041603063564</v>
+        <v>0.005057416297737676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0287976871576401</v>
+        <v>0.07521975148689169</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007455090725794141</v>
+        <v>0.002329548465527687</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05713727941330946</v>
+        <v>0.03486416453846217</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05959585644868952</v>
+        <v>0.04328687907663498</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01089450358675092</v>
+        <v>0.0355480471753173</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009517895954488678</v>
+        <v>0.01460866194191374</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07264101979572211</v>
+        <v>0.02051609083336026</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05893570281864003</v>
+        <v>0.08445004944911924</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04004644405374139</v>
+        <v>0.007937176771171582</v>
       </c>
       <c r="P4" t="n">
-        <v>0.009587189213868265</v>
+        <v>0.07260197160457725</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006323078410405964</v>
+        <v>0.001955524845639654</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01769493824390509</v>
+        <v>0.0004903336673788353</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07433980079813536</v>
+        <v>0.06360094757261864</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04982867963603904</v>
+        <v>0.02045596260736478</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07657724862532392</v>
+        <v>0.03036691866956591</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001861628052873132</v>
+        <v>0.04400944257000756</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01426893627714457</v>
+        <v>0.0555993335613764</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0640770720893296</v>
+        <v>0.07599466560333452</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01990457505489115</v>
+        <v>0.0201509793720905</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01925754767865859</v>
+        <v>0.04108765611654265</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07048316765580122</v>
+        <v>0.07456307894248142</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0765565357110288</v>
+        <v>0.02667299554728784</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.004267944886426056</v>
+        <v>0.01770209689657564</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.006139889074384313</v>
+        <v>0.04143030578375903</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0659822032300113</v>
+        <v>0.02928538386753503</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01089379912849551</v>
+        <v>0.04310259817932152</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.06425424467543832</v>
+        <v>0.01711201855640663</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.3207104441640773</v>
+        <v>-0.3113436560685949</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2246832064625881</v>
+        <v>0.3297448237849986</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07578276081618224</v>
+        <v>0.07552195112332254</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02937629695349582</v>
+        <v>0.03026134602263618</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001326490313777397</v>
+        <v>0.01941652906500029</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06426775566843375</v>
+        <v>0.05712507539692042</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004844343908058451</v>
+        <v>0.06479611348143378</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05392776116199897</v>
+        <v>0.08465595622700728</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008357594707352025</v>
+        <v>0.0165790382312986</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07386371260488382</v>
+        <v>0.02363550028311473</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03168593257194608</v>
+        <v>0.01795815894665896</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02014071161791465</v>
+        <v>0.008201835925912438</v>
       </c>
       <c r="P5" t="n">
-        <v>0.008994695340922577</v>
+        <v>0.000773943498128835</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01988739488560491</v>
+        <v>0.05389711644802827</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02130596774814665</v>
+        <v>0.001499832097996771</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05806538922592241</v>
+        <v>0.02848933902632688</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02592749266504387</v>
+        <v>0.03927111159839186</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00136002705500274</v>
+        <v>0.08722353472547921</v>
       </c>
       <c r="V5" t="n">
-        <v>0.07642444573872226</v>
+        <v>0.08264393508302814</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07405929679461742</v>
+        <v>0.04433705449126759</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0626401688738986</v>
+        <v>0.01356104855185752</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04029954342376721</v>
+        <v>0.01044202576796786</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00456564095048733</v>
+        <v>0.03558374887451955</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01556597696523705</v>
+        <v>0.02831714426670576</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05792683572141822</v>
+        <v>0.05289997413938231</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.004104993436850246</v>
+        <v>0.0284102541218022</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.03853276786982867</v>
+        <v>0.01506973345895763</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01942990134773078</v>
+        <v>0.01428781643288064</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03010789752744637</v>
+        <v>0.008091150232739437</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.07722820410530938</v>
+        <v>0.05704973248123449</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.35652485922463</v>
+        <v>-0.3848948545473017</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2296143865916134</v>
+        <v>0.2317814348217028</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03936800974396716</v>
+        <v>0.005422196276223316</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07318774157723255</v>
+        <v>0.07823813810999061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005886380555009281</v>
+        <v>0.002527244514802911</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03911790448487618</v>
+        <v>0.06568772886899728</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005238271360664602</v>
+        <v>0.01177745392855292</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01733439919471334</v>
+        <v>0.01747096534141821</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005185735609447196</v>
+        <v>0.006978605363758207</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04902640864657089</v>
+        <v>0.03994990901623527</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05396870894880564</v>
+        <v>0.04311788749995665</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0067463270619292</v>
+        <v>0.03597311360794116</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06122528882690458</v>
+        <v>0.006568906149100092</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02366401909688335</v>
+        <v>0.01338140906375863</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05251663861404453</v>
+        <v>0.01221777550431057</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01149658591298129</v>
+        <v>0.04718773884219107</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06545273674962063</v>
+        <v>0.07152698931003013</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0207979248313957</v>
+        <v>0.02811635396041065</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05017319069765887</v>
+        <v>0.05185773386071635</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04466059008624955</v>
+        <v>0.07554931059353194</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05403307366842844</v>
+        <v>0.03553011635753651</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02066264410558368</v>
+        <v>0.01709581275905634</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01317069121503554</v>
+        <v>0.02133276665540869</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.06068900155147432</v>
+        <v>0.05708106114291259</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04706025139738213</v>
+        <v>0.07139647857917135</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.035694152913683</v>
+        <v>0.02362232228476928</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01804883847365853</v>
+        <v>0.00734372125256189</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.05104801552009616</v>
+        <v>0.02214462044162823</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01698267650547693</v>
+        <v>0.06981809238808509</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.05756379265022658</v>
+        <v>0.06108554832694399</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.180777155546546</v>
+        <v>0.1704518841653287</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2773378756787322</v>
+        <v>0.2887130595503258</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0359255767884035</v>
+        <v>0.09586353690788305</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08869433866975864</v>
+        <v>0.01082608262857157</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008164691772350409</v>
+        <v>0.01342319427281843</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01111507835296259</v>
+        <v>0.04026258448660548</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008007417725107097</v>
+        <v>0.0006316394342017784</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08731928446747224</v>
+        <v>0.03865166505123815</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05709431384462692</v>
+        <v>0.09018019925809596</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003491323771248785</v>
+        <v>0.09370838681945667</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01569907462258767</v>
+        <v>0.01271715608099819</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08435118932987626</v>
+        <v>0.08252799302863528</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06012990472618371</v>
+        <v>0.005429502168692227</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03042071802778981</v>
+        <v>0.005193318645954836</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03544866352725796</v>
+        <v>0.02549369190562348</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06089748582712284</v>
+        <v>0.08538008172453586</v>
       </c>
       <c r="T7" t="n">
-        <v>0.06427061283891826</v>
+        <v>0.01531619362313288</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08973290282376184</v>
+        <v>0.05922614798902009</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004300983615795321</v>
+        <v>0.008030445116220253</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01501206786719784</v>
+        <v>0.05753456561105059</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001106601368216583</v>
+        <v>0.02479895064367502</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.00936048148572312</v>
+        <v>0.01328772310632909</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.04376930139805253</v>
+        <v>0.004713151423936782</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03304693434080146</v>
+        <v>0.02819416995680513</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02681958583227972</v>
+        <v>0.02361278820503815</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.005408965188811815</v>
+        <v>0.06482496201486691</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.02170194172685475</v>
+        <v>0.002646775787566631</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01088963594914501</v>
+        <v>0.03767780389146134</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.003350009507581621</v>
+        <v>0.01388409560873559</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.08447091460411173</v>
+        <v>0.04596319460885053</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2848692834930076</v>
+        <v>0.2978876773838351</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2633615262633793</v>
+        <v>0.2627041357863127</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04600945908636015</v>
+        <v>0.03368867444909927</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06469617426188683</v>
+        <v>0.05613564566256891</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002478938730368941</v>
+        <v>0.003772499851157749</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07830409743007231</v>
+        <v>0.04985268764205927</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04316842939281182</v>
+        <v>0.01915676905232233</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00643564682948868</v>
+        <v>0.02298236737228282</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06586580404643357</v>
+        <v>0.02726789071052826</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006196119300108827</v>
+        <v>0.02814440527693008</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01397347236191416</v>
+        <v>0.01529632359744084</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01049806029619317</v>
+        <v>0.01326172117652203</v>
       </c>
       <c r="P8" t="n">
-        <v>0.008362588888163183</v>
+        <v>0.06307975185072591</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02940037303602255</v>
+        <v>0.02219502721522628</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04681111905948091</v>
+        <v>0.05572710212325242</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02934220856506307</v>
+        <v>0.03366563983506923</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03560609208090551</v>
+        <v>0.05378967028415665</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0004268348300047971</v>
+        <v>0.004291283363548067</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03196593350155456</v>
+        <v>0.04464280300288376</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06650625867455894</v>
+        <v>0.06843921828484216</v>
       </c>
       <c r="X8" t="n">
-        <v>0.005420055150063285</v>
+        <v>0.05625109923571524</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004757414949870326</v>
+        <v>0.002942373066609944</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.05551527149919408</v>
+        <v>0.001911279053388849</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0693784854717759</v>
+        <v>0.01285416465307352</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06968392686981238</v>
+        <v>0.05216144760296733</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.07189449331999501</v>
+        <v>0.06237317043568959</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.003619084412674277</v>
+        <v>0.04027103502931596</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.02641082422099473</v>
+        <v>0.05291717867966715</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.05292375468439632</v>
+        <v>0.03293755170186136</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.05434907904983179</v>
+        <v>0.06999121979109511</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1028393296478666</v>
+        <v>0.1124930609160521</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2870267212911684</v>
+        <v>0.2911992930423186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0621905612422946</v>
+        <v>0.08355330949668634</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04740860419679822</v>
+        <v>0.009211816756623263</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001077908691678134</v>
+        <v>0.004361242663212491</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05950303439028252</v>
+        <v>0.08022321527807386</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04118417488199286</v>
+        <v>0.01985032335951967</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06365785151818716</v>
+        <v>0.06290835069566142</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05677731380182011</v>
+        <v>0.02947155280097419</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03169699076259046</v>
+        <v>0.02570627833679799</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01682748910197015</v>
+        <v>0.01697687946012005</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01869640619261696</v>
+        <v>0.04250282115953877</v>
       </c>
       <c r="P9" t="n">
-        <v>0.008152387410067161</v>
+        <v>0.0218544936345717</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06327859003992299</v>
+        <v>0.03757584631787992</v>
       </c>
       <c r="R9" t="n">
-        <v>0.005880672618208382</v>
+        <v>0.04404182725248118</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05184290768651978</v>
+        <v>0.0331496080498155</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05042800163057966</v>
+        <v>0.02242147112653749</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009309883634181518</v>
+        <v>0.02647257694658854</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04471831109571801</v>
+        <v>0.07510021276038988</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02676958874127881</v>
+        <v>0.0569904678510091</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02130123654248635</v>
+        <v>4.612604443080512e-05</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05764106882993122</v>
+        <v>0.03428748507527637</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.06114848512255393</v>
+        <v>0.05910473993892641</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06119686017800154</v>
+        <v>0.05877127959172371</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.009789819101382565</v>
+        <v>0.03637518691409065</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01211769655588318</v>
+        <v>0.008928872865403193</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.04717475082163974</v>
+        <v>0.01062072853049806</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01223169301339216</v>
+        <v>0.02395050489012104</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0553276105535803</v>
+        <v>0.0301666008861869</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.002670101644441397</v>
+        <v>0.04537618131686173</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1340693097136621</v>
+        <v>0.1480842653263063</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.190487746166265</v>
+        <v>0.1788578457486587</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04252531498986142</v>
+        <v>0.0228183694458308</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07341633673186751</v>
+        <v>0.08775406977528233</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01383590549090686</v>
+        <v>0.006405348672873863</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02481056928309766</v>
+        <v>0.01306099466107683</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01279205435795777</v>
+        <v>0.007121717661302998</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02484104179891193</v>
+        <v>0.004855053224312062</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03687367081319332</v>
+        <v>0.05727730015729111</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02955720413670798</v>
+        <v>0.04811429274479731</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05169169165850614</v>
+        <v>0.04517346732729206</v>
       </c>
       <c r="O10" t="n">
-        <v>0.009793590510727618</v>
+        <v>0.03166722823073286</v>
       </c>
       <c r="P10" t="n">
-        <v>0.009747028220163646</v>
+        <v>0.03282865063903884</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.008504562927182654</v>
+        <v>0.0201617545992761</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08310486025511105</v>
+        <v>0.01877472139722636</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04939034995509287</v>
+        <v>0.003645565583764415</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05873318673256637</v>
+        <v>0.02303982693105681</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02094917196151833</v>
+        <v>0.02908925328133399</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03751716665499275</v>
+        <v>0.07532688667138146</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0623908876070514</v>
+        <v>0.08383404244288381</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02542325506141493</v>
+        <v>0.03145341704175901</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.005445939139861056</v>
+        <v>0.006125639346588913</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.04788754100131801</v>
+        <v>0.07496195674018478</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.04574797265953445</v>
+        <v>0.009116603206837182</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01715155380648019</v>
+        <v>0.08079116459873777</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.06274519155397038</v>
+        <v>0.01194807943935497</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.009527104678755024</v>
+        <v>0.03434360462735288</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.04618604073553951</v>
+        <v>0.03368523301100198</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.01991652557008319</v>
+        <v>0.06172114932929806</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.06949428170762594</v>
+        <v>0.04490460921213046</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.06664587816840364</v>
+        <v>0.03216676452493511</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2306746782676042</v>
+        <v>0.2064146401370263</v>
       </c>
       <c r="F11" t="n">
-        <v>0.015055043963589</v>
+        <v>0.02001423619075589</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03489175317049508</v>
+        <v>0.04728056361067703</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01794303188300106</v>
+        <v>0.009499902560317859</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007598663530992538</v>
+        <v>0.025010768780252</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02884750403688103</v>
+        <v>0.007319545162260285</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07026398375661408</v>
+        <v>0.0818919861307123</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02567272342324322</v>
+        <v>0.005553002915589978</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005775323932653877</v>
+        <v>0.0210090076716929</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05168359347162812</v>
+        <v>0.05690045379861926</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0248826710287021</v>
+        <v>0.008149304013159433</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07793073288538357</v>
+        <v>0.03371802475660441</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.07598430907631351</v>
+        <v>0.03888915183349393</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07174795471318085</v>
+        <v>0.07723178162412944</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07316978456880395</v>
+        <v>0.01561796284191769</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02125258090023686</v>
+        <v>0.01901699956793696</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02054949388544125</v>
+        <v>0.007570719914481838</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03046472346163292</v>
+        <v>0.04114902694120289</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06217022714983287</v>
+        <v>0.08113907607506432</v>
       </c>
       <c r="X11" t="n">
-        <v>0.005174875075361768</v>
+        <v>0.04109009250068578</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01618845000905</v>
+        <v>0.01136984554303931</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.00578993623961514</v>
+        <v>0.02503457671212009</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.07111994315077019</v>
+        <v>0.07641533707806797</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.03851592247486271</v>
+        <v>0.05423794925074645</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.004015780850574129</v>
+        <v>0.004296332896083345</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.05930226367875073</v>
+        <v>0.05844692679746115</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.02388273561322602</v>
+        <v>0.05390579521727984</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.05882557755197315</v>
+        <v>0.06778529949312811</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.001300416517190201</v>
+        <v>0.01045633012251958</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.04444088954316156</v>
+        <v>0.05437954479856622</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1491576728067175</v>
+        <v>0.1493821427646201</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01267515308478108</v>
+        <v>0.004681365724879948</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05350695058285928</v>
+        <v>0.03123788156995716</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0618564206965822</v>
+        <v>0.0422989038416648</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02347247801566208</v>
+        <v>0.007887532828650713</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02874400351561614</v>
+        <v>0.02980462713081372</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006958438886497048</v>
+        <v>0.006808671109897546</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009940034440980496</v>
+        <v>0.02771463078070956</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01697762194628066</v>
+        <v>0.02642272223410136</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02981231578321036</v>
+        <v>0.03331653881191145</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005884757969202008</v>
+        <v>0.02083361964093917</v>
       </c>
       <c r="P12" t="n">
-        <v>0.008787199139044674</v>
+        <v>0.009034374625136111</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.009839238943887021</v>
+        <v>0.01690663578493917</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04116691211995169</v>
+        <v>0.05023918429548279</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03220885637037296</v>
+        <v>0.02348042918463777</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05281593785215801</v>
+        <v>0.03270163168215283</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01916145448889416</v>
+        <v>0.01369653524215765</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0351601559622159</v>
+        <v>0.05263648542510377</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05976815846596011</v>
+        <v>0.06755430696605016</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04548957772038032</v>
+        <v>0.05432169131433117</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.06406598785636367</v>
+        <v>0.06101890663599092</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.021460715060514</v>
+        <v>0.06184245036326053</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02167068377035538</v>
+        <v>0.06278147578358562</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06268816054849771</v>
+        <v>0.06633567018027391</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.04503439292070156</v>
+        <v>0.03762375306851126</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.04141142017087903</v>
+        <v>0.01952133617287409</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.06159510633308373</v>
+        <v>0.07285399853944388</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.06559605741978757</v>
+        <v>0.05830666913759707</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.06225180993528109</v>
+        <v>0.008137971924945992</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.08699459198990483</v>
+        <v>0.0748415987255627</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1728838928302877</v>
+        <v>0.1556109218112561</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07788141419201897</v>
+        <v>0.05252245071805365</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07083361169840126</v>
+        <v>0.007896807129801616</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04168628774827367</v>
+        <v>0.07512922818595548</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02027463183271022</v>
+        <v>0.01487641551607542</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002187243262056037</v>
+        <v>0.05472209905404164</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01782656519932454</v>
+        <v>0.00919739004317161</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006674906186702761</v>
+        <v>0.005837796795798007</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02765750440855882</v>
+        <v>0.07078907034930645</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04509613433763628</v>
+        <v>0.01050632014439546</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03648478227295936</v>
+        <v>0.004142489430560629</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01708357728932049</v>
+        <v>0.005756511016641209</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002359188103048327</v>
+        <v>0.002836109647432032</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04833695726517268</v>
+        <v>0.07720557670987691</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04328657215039661</v>
+        <v>0.007287388681463738</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0005042852243382262</v>
+        <v>0.08319547188879926</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01265758318297142</v>
+        <v>0.003939938520647167</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04962711351823338</v>
+        <v>0.05281663742722112</v>
       </c>
       <c r="W13" t="n">
-        <v>0.02688168199949956</v>
+        <v>0.07652445496186214</v>
       </c>
       <c r="X13" t="n">
-        <v>0.07571512755931901</v>
+        <v>0.01690471142405135</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01319391537501869</v>
+        <v>0.04542676181726762</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01927753301142915</v>
+        <v>0.04229029578141152</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0770929585247407</v>
+        <v>0.08352957178966496</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.03069595977363554</v>
+        <v>0.03426294902166575</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03920434977507947</v>
+        <v>0.02871890555203037</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.06918365626270266</v>
+        <v>0.01836468179339403</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.03982421828911989</v>
+        <v>0.0254841076427934</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.02135305150946987</v>
+        <v>0.01760411951201823</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.06711919004786228</v>
+        <v>0.07223173944459915</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.1215668944068231</v>
+        <v>0.06676093810934894</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1375917715836337</v>
+        <v>0.1359740854979459</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005894843316917042</v>
+        <v>0.06549278797827074</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07353966074016345</v>
+        <v>0.0500387688177298</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02590128146938387</v>
+        <v>0.007239514225795043</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06188264162372874</v>
+        <v>0.03764228583127183</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01642406730124576</v>
+        <v>0.01988480225083525</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01282545035425887</v>
+        <v>0.01223769178290217</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05749393585599002</v>
+        <v>0.04554044020152431</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0080033692280251</v>
+        <v>0.04860972224342645</v>
       </c>
       <c r="N14" t="n">
-        <v>0.05485115454962196</v>
+        <v>0.04129600463817053</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01055420296035682</v>
+        <v>0.005122290313950193</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04451078229064177</v>
+        <v>0.01839144427546208</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.005437737591466275</v>
+        <v>0.02316618671241024</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0716522868860658</v>
+        <v>0.01530451139158633</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01121846897244297</v>
+        <v>0.04603587161146976</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07236625914419741</v>
+        <v>0.03088805362639704</v>
       </c>
       <c r="U14" t="n">
-        <v>0.00739531139131973</v>
+        <v>0.001512118555543602</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06203615890036326</v>
+        <v>0.06422756362926091</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02084265995904012</v>
+        <v>0.008309427910965152</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01326389857257862</v>
+        <v>0.01008937230076204</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.008418918537943843</v>
+        <v>0.07773070370598546</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.004284859580247305</v>
+        <v>0.03835406977310257</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.05817672243203709</v>
+        <v>0.03624555843860543</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.06359492135845411</v>
+        <v>0.06426286604762932</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.04047099142581238</v>
+        <v>0.02900150887200674</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.04858381107272833</v>
+        <v>0.02781375642441672</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.05457080189379643</v>
+        <v>0.05268136712412131</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.009414034913391992</v>
+        <v>0.07850144042493996</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.07639076767778095</v>
+        <v>0.04437987089145909</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2261108987674045</v>
+        <v>0.2201181347013829</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1523032090898615</v>
+        <v>0.1501389597813984</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01885633126640739</v>
+        <v>0.01427251605900448</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06555714736489346</v>
+        <v>0.06670438129039373</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06810781835179673</v>
+        <v>0.03927174100810565</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007164719892128848</v>
+        <v>0.0529204288490037</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01921033610942241</v>
+        <v>0.007298466284014329</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05476754281217746</v>
+        <v>0.06868279247610838</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0201156994169528</v>
+        <v>0.002946091603333008</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02317550307981967</v>
+        <v>0.002701761221260224</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04225953027984826</v>
+        <v>0.06716769015862066</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07374038007318452</v>
+        <v>0.06555937518755653</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0725588889265958</v>
+        <v>0.02075597724732292</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.006807392792829783</v>
+        <v>0.04415930790875654</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04161902978883712</v>
+        <v>0.0362122557870197</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0003335906969486353</v>
+        <v>0.01586786815834839</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04772959982363987</v>
+        <v>0.03568435370038889</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04872432317548968</v>
+        <v>0.04690340774092122</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02651782723732901</v>
+        <v>0.05641123516484624</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01787438015220113</v>
+        <v>0.01591194948781473</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0643356481003635</v>
+        <v>0.005674899983128388</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.06685785554492572</v>
+        <v>0.07424188838412064</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02333906493056627</v>
+        <v>0.02943845978361961</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01094431205227518</v>
+        <v>0.07685985206044024</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01806609850800963</v>
+        <v>0.05130603282963198</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01510588729801905</v>
+        <v>0.009711945045600332</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.04647318736279235</v>
+        <v>0.01117227685138692</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.02960678263177929</v>
+        <v>0.05502695251462616</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.04311269909379663</v>
+        <v>0.001555747958414948</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.02703842323696981</v>
+        <v>0.02558034525621154</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2510785117604125</v>
+        <v>0.2597361785580367</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1040395730180221</v>
+        <v>0.1052535121185163</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05771683789819732</v>
+        <v>0.02125777745441897</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0208227775872195</v>
+        <v>0.03608851652972692</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005335139714905797</v>
+        <v>0.05646710177295723</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009836323211214451</v>
+        <v>0.001835823568179586</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02330683196065766</v>
+        <v>0.05438223756180467</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03231057060422569</v>
+        <v>0.02553109226322944</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0620541164227313</v>
+        <v>0.02891809719932294</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04272997135293381</v>
+        <v>0.04193901756887652</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0002179219759559</v>
+        <v>0.0179686191858454</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03168847636751158</v>
+        <v>0.006468444220931166</v>
       </c>
       <c r="P16" t="n">
-        <v>0.05814877221735586</v>
+        <v>0.03674044376508804</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03685926914207976</v>
+        <v>0.02234286660053142</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06340549179552789</v>
+        <v>0.05631138237979073</v>
       </c>
       <c r="S16" t="n">
-        <v>0.007038898274364821</v>
+        <v>0.05631700931103745</v>
       </c>
       <c r="T16" t="n">
-        <v>0.06610575661930244</v>
+        <v>0.04875728643301378</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008368315479935178</v>
+        <v>0.02318869519325528</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01355145370216111</v>
+        <v>0.04446917105201771</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06730428615749065</v>
+        <v>0.05243353727523061</v>
       </c>
       <c r="X16" t="n">
-        <v>0.04673630293894425</v>
+        <v>0.0177809361713917</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.04487097348131704</v>
+        <v>0.06629575668684703</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.004827171222724262</v>
+        <v>0.009909442333566866</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0009264577821591208</v>
+        <v>0.002714122843984425</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.06500265453609591</v>
+        <v>0.03637354661482542</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.05114211839882384</v>
+        <v>0.04721216574221828</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.01881550705527722</v>
+        <v>0.05867247657722805</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.05675645852430607</v>
+        <v>0.0637949305472542</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.04199538353618709</v>
+        <v>0.00119179378471958</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0621257620403944</v>
+        <v>0.06463770936270659</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1144517039017135</v>
+        <v>0.1098324779247966</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1152320482982557</v>
+        <v>0.1139962521929022</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06451326084004362</v>
+        <v>0.07979783339414075</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0003119712082893958</v>
+        <v>0.03374729492157656</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0661898688867652</v>
+        <v>0.0585351368746695</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06379756548036226</v>
+        <v>0.07569277984586098</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06779212383825806</v>
+        <v>0.02205722663870236</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01640987950933058</v>
+        <v>0.03430664925684544</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006895013988773905</v>
+        <v>0.05188877702824572</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0666909403242902</v>
+        <v>0.04928909522189679</v>
       </c>
       <c r="N17" t="n">
-        <v>0.004700485661291989</v>
+        <v>0.01570447175571048</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05612461169061008</v>
+        <v>0.04291777642187032</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02796875002704608</v>
+        <v>0.0005491678220347623</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01802526841628121</v>
+        <v>0.01082724029556882</v>
       </c>
       <c r="R17" t="n">
-        <v>0.00475834541212315</v>
+        <v>0.02995880199265732</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05033907805461003</v>
+        <v>0.03485510944299824</v>
       </c>
       <c r="T17" t="n">
-        <v>0.06476686025078056</v>
+        <v>0.03122106408787241</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05516335759617493</v>
+        <v>0.0243523241554741</v>
       </c>
       <c r="V17" t="n">
-        <v>0.005296950807913482</v>
+        <v>0.02021892185395731</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02653815110597128</v>
+        <v>0.03488447059300923</v>
       </c>
       <c r="X17" t="n">
-        <v>0.03857174045249306</v>
+        <v>0.03674370991047714</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.04054615681869582</v>
+        <v>0.01897962627703407</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.004130045053886507</v>
+        <v>0.01073356952721752</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.006303424079723669</v>
+        <v>0.00316879843061458</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.008550454098247832</v>
+        <v>0.0508667732527262</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02632088496913635</v>
+        <v>0.02310569118943604</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.06298595708123483</v>
+        <v>0.0442613321879161</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.06016423373758361</v>
+        <v>0.01448521481279456</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.06477604354123778</v>
+        <v>0.07512744947973816</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0213685770688445</v>
+        <v>0.07172369332895454</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1196396076658136</v>
+        <v>0.1314691227958478</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.101056680512685</v>
+        <v>0.1035193197637771</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02405189654778075</v>
+        <v>0.05188814648855712</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0003030547843550759</v>
+        <v>0.002197067725981554</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04808353706079551</v>
+        <v>0.04045723870475197</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04175532744812233</v>
+        <v>0.05342089524815065</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07419692951091021</v>
+        <v>0.008988870457367923</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000641095769356186</v>
+        <v>0.008252473740842793</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009613750624817502</v>
+        <v>0.0639378992208543</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06585271892492237</v>
+        <v>0.05013323550337591</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05092410490142408</v>
+        <v>0.04262704670116068</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01944658933290395</v>
+        <v>0.0545781168506813</v>
       </c>
       <c r="P18" t="n">
-        <v>0.05780182326391895</v>
+        <v>0.0227807494192865</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0178551024764394</v>
+        <v>0.0623999041196583</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05490991390100229</v>
+        <v>0.05430325619717494</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02690041596304391</v>
+        <v>0.0292347776172505</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04378457781206364</v>
+        <v>0.0246285075845907</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04840356769184558</v>
+        <v>0.04674644851105394</v>
       </c>
       <c r="V18" t="n">
-        <v>0.04920836651926572</v>
+        <v>0.05201301020292111</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06356469311295979</v>
+        <v>0.02781937304662734</v>
       </c>
       <c r="X18" t="n">
-        <v>0.003078435193247393</v>
+        <v>0.003233452545286718</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0006899244651021584</v>
+        <v>0.002545406688272165</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.05893902087887958</v>
+        <v>0.02246455088849561</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.04352904918071888</v>
+        <v>0.0363321583457753</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.06716486095280035</v>
+        <v>0.001131964941057728</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.001097638469554799</v>
+        <v>0.06399507233641354</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.02139329644931804</v>
+        <v>0.008903830427166205</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.05615952027387539</v>
+        <v>0.05903977520894699</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.007622893612014992</v>
+        <v>0.04065212818259602</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.04302789487856101</v>
+        <v>0.06529464309570238</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.0191677899200153</v>
+        <v>-0.01247803826125872</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1242792445921674</v>
+        <v>0.125504280022354</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08263752321875821</v>
+        <v>0.08153664223612088</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0253312936289976</v>
+        <v>0.01661931545558313</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003987382481327822</v>
+        <v>0.02760204199806003</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0406000711373194</v>
+        <v>0.01510804311727527</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02008842899908929</v>
+        <v>0.001209071216479237</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02265530038081715</v>
+        <v>0.002466082136393651</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0847916597428772</v>
+        <v>0.01335459148811736</v>
       </c>
       <c r="M19" t="n">
-        <v>0.007523869285531458</v>
+        <v>0.005557192607559657</v>
       </c>
       <c r="N19" t="n">
-        <v>0.004907962197786715</v>
+        <v>0.06060696153712657</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07217936826672047</v>
+        <v>0.007930974386801759</v>
       </c>
       <c r="P19" t="n">
-        <v>0.03808486928520333</v>
+        <v>0.0009209347720604864</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02234970472952459</v>
+        <v>0.07461650184059368</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01393205896294732</v>
+        <v>0.0385119698330673</v>
       </c>
       <c r="S19" t="n">
-        <v>0.03760164576461181</v>
+        <v>0.07429471393993645</v>
       </c>
       <c r="T19" t="n">
-        <v>0.008133421756676916</v>
+        <v>0.0255017591148185</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04218790675769372</v>
+        <v>0.03322884457707356</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01957640495986999</v>
+        <v>0.07757179148284356</v>
       </c>
       <c r="W19" t="n">
-        <v>0.007122545740097267</v>
+        <v>0.02517975080214755</v>
       </c>
       <c r="X19" t="n">
-        <v>0.04473702361443214</v>
+        <v>0.01617639514925676</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0006692042350335816</v>
+        <v>0.03342932141994875</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.06630628299937666</v>
+        <v>0.07615621964249086</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07673739853482328</v>
+        <v>0.08274156249490169</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.009334821103295218</v>
+        <v>0.06149092625630195</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.03178930869260248</v>
+        <v>0.005084489617375812</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.08268169789883688</v>
+        <v>0.06418304618771668</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.05448839687489065</v>
+        <v>0.04303333559763695</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.02268898276223152</v>
+        <v>0.01246139810839225</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.05687546598862724</v>
+        <v>0.02342612298391956</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.02752537883898721</v>
+        <v>0.02389798348569629</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.122476922628969</v>
+        <v>0.1188616996210033</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04921090996155784</v>
+        <v>0.01339917362467671</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05404929008535322</v>
+        <v>0.04345009090771699</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01533909799528414</v>
+        <v>0.02574468728942704</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003114924825182117</v>
+        <v>0.006755137411003084</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04883500418753866</v>
+        <v>0.015669855098234</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004259753426013025</v>
+        <v>0.0003919073413443206</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06436947358852485</v>
+        <v>0.07480992435869428</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02659475845409156</v>
+        <v>0.02364534872876312</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01192533950260621</v>
+        <v>0.04116337236301202</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06982786857281777</v>
+        <v>0.07279134175739825</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05591622896402012</v>
+        <v>0.07398248272813346</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05482242496452176</v>
+        <v>0.07244613884219961</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02553228769867725</v>
+        <v>0.05981579443083606</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05025454023402114</v>
+        <v>0.04587107484923011</v>
       </c>
       <c r="T20" t="n">
-        <v>0.007795784791970926</v>
+        <v>0.01028711412859732</v>
       </c>
       <c r="U20" t="n">
-        <v>0.009117645508259041</v>
+        <v>0.04356250489801909</v>
       </c>
       <c r="V20" t="n">
-        <v>0.03152510332620963</v>
+        <v>0.06805814771269986</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01345764755876669</v>
+        <v>0.002418402327017048</v>
       </c>
       <c r="X20" t="n">
-        <v>0.04872030236591084</v>
+        <v>0.06974642237150941</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02814208990537593</v>
+        <v>0.01312455624797927</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.007846520368422281</v>
+        <v>0.03594702474721397</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.05064215218446973</v>
+        <v>0.01907042541409662</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06404704091971539</v>
+        <v>0.02488773655838651</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.05561458824891675</v>
+        <v>0.013174197761827</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.009058631402158939</v>
+        <v>0.01872413135376868</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.02875851188948298</v>
+        <v>0.02184783874656634</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.05432469961473452</v>
+        <v>0.01793982897984221</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.06073115753880842</v>
+        <v>0.0712753390218076</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1034783359536337</v>
+        <v>0.1206677653397234</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.8859878328291337</v>
+        <v>1.083934975367852</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00173853013489602</v>
+        <v>0.007113879064293115</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02949288797497412</v>
+        <v>0.06440248821841971</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02268907834490761</v>
+        <v>0.0181778638160115</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03703824354454014</v>
+        <v>0.06528593908167246</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00622048458902514</v>
+        <v>0.007002639204732227</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06501882415359518</v>
+        <v>0.08104425137736418</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0423866391940986</v>
+        <v>0.03486903983437745</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0101128534987506</v>
+        <v>0.06348252698898733</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06015502413243986</v>
+        <v>0.007558735879303864</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0089362401910954</v>
+        <v>0.02084366003495498</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03997566724916031</v>
+        <v>0.07619500501232836</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06468731541478198</v>
+        <v>0.06279888295382209</v>
       </c>
       <c r="R21" t="n">
-        <v>0.009240103608213096</v>
+        <v>0.005409059980609451</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03350684769346862</v>
+        <v>0.01016371192680147</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03199283338133624</v>
+        <v>0.01821304681417941</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05112742616743546</v>
+        <v>0.01195948424828969</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0106519487875797</v>
+        <v>0.02846174533073831</v>
       </c>
       <c r="W21" t="n">
-        <v>0.05727481428475995</v>
+        <v>0.04281155716046082</v>
       </c>
       <c r="X21" t="n">
-        <v>0.05533607746324836</v>
+        <v>0.009682353915356124</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.03525028660753235</v>
+        <v>0.04134328348707758</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.06215277724136959</v>
+        <v>0.003627963492891376</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.06749787473180606</v>
+        <v>0.05276309282965949</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02578064113941689</v>
+        <v>0.01954270690043938</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.007448475864220799</v>
+        <v>0.05453405760506687</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.06046053852522039</v>
+        <v>0.0663661177281957</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.04887753276601603</v>
+        <v>0.09098825028889855</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.04939555298584632</v>
+        <v>0.03181306081135975</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.005554480330265442</v>
+        <v>0.003545596013708715</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.08458043420159764</v>
+        <v>0.08366129917890719</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1314891305906558</v>
+        <v>0.1319306181233326</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07369555371666013</v>
+        <v>0.0208779710593258</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06089955266247978</v>
+        <v>0.04606534645800461</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03506793720513283</v>
+        <v>0.07636290008825329</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02283611412132668</v>
+        <v>0.04190049377762316</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004570802574771262</v>
+        <v>0.002728743053747027</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04360687525903275</v>
+        <v>0.07642633041657236</v>
       </c>
       <c r="L22" t="n">
-        <v>0.007065032715068887</v>
+        <v>0.04057702712628972</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06177913278360768</v>
+        <v>0.01832145373343074</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0533903767022175</v>
+        <v>0.06821301195493161</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01479329834680299</v>
+        <v>0.0006561257880178418</v>
       </c>
       <c r="P22" t="n">
-        <v>0.05068417712938918</v>
+        <v>0.05130707730016732</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0006068797432918779</v>
+        <v>0.06073710883909355</v>
       </c>
       <c r="R22" t="n">
-        <v>0.02305554373458009</v>
+        <v>0.01715227133463904</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03664693436634324</v>
+        <v>0.03162205437657886</v>
       </c>
       <c r="T22" t="n">
-        <v>0.05909087945231542</v>
+        <v>0.01877108354351878</v>
       </c>
       <c r="U22" t="n">
-        <v>0.006657239270810167</v>
+        <v>0.008823400190228224</v>
       </c>
       <c r="V22" t="n">
-        <v>0.03635689955484403</v>
+        <v>0.01643418579549684</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07178927914924846</v>
+        <v>0.01425378450570704</v>
       </c>
       <c r="X22" t="n">
-        <v>0.001181435217850934</v>
+        <v>0.05644510825286631</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.008682343319853923</v>
+        <v>0.007160548498796379</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.03204663133798825</v>
+        <v>0.001867018219342839</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05761841703881244</v>
+        <v>0.05873689666528343</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.06466943981880492</v>
+        <v>0.01143249440310653</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0547173505733203</v>
+        <v>0.07749460573492735</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.06596116740959793</v>
+        <v>0.08210088655462461</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.003414262316321454</v>
+        <v>0.06967288556731657</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.04889219688623053</v>
+        <v>0.0229887184958482</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0002242475932964112</v>
+        <v>0.0008704682662621042</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1983790532633375</v>
+        <v>0.2127311786372466</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1642113840744092</v>
+        <v>0.1655382170669571</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01536583327835233</v>
+        <v>0.0304087460822289</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002444406406405062</v>
+        <v>0.02135930392928413</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08356193646099144</v>
+        <v>0.07620053129455873</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01622585711175216</v>
+        <v>0.05161899931778528</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03836556628380134</v>
+        <v>0.06838364563445866</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02015410265525384</v>
+        <v>0.02729951188347514</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03471419748336262</v>
+        <v>0.06545379421097321</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03100089884570745</v>
+        <v>0.03643097691497004</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03698092851030774</v>
+        <v>0.007432286320889508</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04916806459958158</v>
+        <v>0.01159877737673773</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03464651546628995</v>
+        <v>0.008626556589991417</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.07874273081670247</v>
+        <v>0.06056440066994166</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01858887784969037</v>
+        <v>0.05221470882937516</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02880978012418433</v>
+        <v>0.0779977162071651</v>
       </c>
       <c r="T23" t="n">
-        <v>0.05087415234895001</v>
+        <v>0.03261501487399463</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05846166810086305</v>
+        <v>0.01974637855577085</v>
       </c>
       <c r="V23" t="n">
-        <v>0.003732823994566687</v>
+        <v>0.006933774483555396</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01816178973746633</v>
+        <v>0.04105040104699133</v>
       </c>
       <c r="X23" t="n">
-        <v>0.07002827561676457</v>
+        <v>0.07323488930832853</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.04111415215771718</v>
+        <v>0.0123920582001204</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.07899790468905991</v>
+        <v>0.04837267436043291</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.05985748132049783</v>
+        <v>0.007517391989586763</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.001024980724295772</v>
+        <v>0.02020209467641429</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.03895593927624305</v>
+        <v>0.0288250730733387</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0610072844701908</v>
+        <v>0.05454296191406301</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.02608125983363166</v>
+        <v>0.03329876370228221</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.001267234433038104</v>
+        <v>0.02505150469039607</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.001665357404332384</v>
+        <v>0.0006270638628900413</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2226510856270893</v>
+        <v>0.2444756751095968</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1206350617540457</v>
+        <v>0.1189387416024753</v>
       </c>
       <c r="F24" t="n">
-        <v>0.008106071679454764</v>
+        <v>0.02064722265007624</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03562148483515582</v>
+        <v>0.07372806310233752</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01140170717945217</v>
+        <v>0.01761071829613946</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0002608954604237518</v>
+        <v>0.01319321351402169</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05957214983217513</v>
+        <v>0.04823001120627952</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001400902144260893</v>
+        <v>0.002418599318487941</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03806673869625581</v>
+        <v>0.0431431996320403</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06514193833944662</v>
+        <v>0.04447595364952701</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0632032991982231</v>
+        <v>0.02400013211281864</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03205247000084032</v>
+        <v>0.01621003651739681</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0195097374724598</v>
+        <v>0.01079788413622236</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05370347505965847</v>
+        <v>0.01849333904683373</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0226156284720604</v>
+        <v>0.06127275888145996</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01458050926772474</v>
+        <v>0.03498842348715698</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0674824809564727</v>
+        <v>0.03307895126831807</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05128217945918925</v>
+        <v>0.003108543729734791</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03442689303826962</v>
+        <v>0.08020540693906163</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01587266980617697</v>
+        <v>0.06209306133779387</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02340166437709497</v>
+        <v>0.05251251727368209</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.02949674561895562</v>
+        <v>0.06697344698819152</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01259684674567755</v>
+        <v>0.007157182916343152</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.03215722876799919</v>
+        <v>0.00669147783001799</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.06518652135474744</v>
+        <v>0.01176610641652926</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.05227819470916744</v>
+        <v>0.04876226470538435</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.05133628164176429</v>
+        <v>0.03367942086042152</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0653567491660748</v>
+        <v>0.07202248190491366</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.0615490121567342</v>
+        <v>0.07666649222205292</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.01233952456408417</v>
+        <v>0.01607309005675686</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.04418225080241795</v>
+        <v>-0.02687881298695453</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1416989868533531</v>
+        <v>0.1523605845424845</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07072524884700211</v>
+        <v>0.051861449609411</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06681970974703594</v>
+        <v>0.00428651048951639</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03028441110006602</v>
+        <v>0.0173343921179933</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01327505213459754</v>
+        <v>0.03642179300915969</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03006169006583277</v>
+        <v>0.06188860171092492</v>
       </c>
       <c r="K25" t="n">
-        <v>0.004470550348831284</v>
+        <v>0.008003829921594596</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03691890965630493</v>
+        <v>0.02241495030306035</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03897451396799592</v>
+        <v>0.06946109605687584</v>
       </c>
       <c r="N25" t="n">
-        <v>0.007986096494737487</v>
+        <v>0.06680272667666934</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02611897102416946</v>
+        <v>0.006558410097617451</v>
       </c>
       <c r="P25" t="n">
-        <v>0.02733713069248471</v>
+        <v>0.04099664420959322</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.07479322456250068</v>
+        <v>0.081810713135023</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0508271107461605</v>
+        <v>0.004969583133586387</v>
       </c>
       <c r="S25" t="n">
-        <v>0.03905059368725138</v>
+        <v>0.07560327565306388</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01384445837583377</v>
+        <v>0.005978537892298611</v>
       </c>
       <c r="U25" t="n">
-        <v>0.002888650742842447</v>
+        <v>0.05607874845133665</v>
       </c>
       <c r="V25" t="n">
-        <v>0.04403098144227729</v>
+        <v>0.02500288029597503</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02580139691047893</v>
+        <v>0.006858477587247678</v>
       </c>
       <c r="X25" t="n">
-        <v>0.001547160396901003</v>
+        <v>0.02188508500799318</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01918043189324086</v>
+        <v>0.015248660869824</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.07409852986523517</v>
+        <v>0.05937798031212034</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02473969891969686</v>
+        <v>0.04086788002079371</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01144600969980661</v>
+        <v>0.02672275708941005</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.03898435351237321</v>
+        <v>0.03227566927812028</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.07088973839586027</v>
+        <v>0.05965800885378981</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.06717860005075578</v>
+        <v>0.01471151192189728</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.01162863138823323</v>
+        <v>0.005240387493714875</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.07609814533149378</v>
+        <v>0.08167943880138927</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.01908436150964876</v>
+        <v>-0.02815976208962057</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1045320110656877</v>
+        <v>0.1055584079932902</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04152284419936575</v>
+        <v>0.04749102319657299</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002532036880928141</v>
+        <v>0.04118964972568454</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008750397986707631</v>
+        <v>0.02693064454727504</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01516949600911115</v>
+        <v>0.0470796495896808</v>
       </c>
       <c r="J26" t="n">
-        <v>0.009726773255509261</v>
+        <v>0.004988710099463748</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001369248973367819</v>
+        <v>0.002178746153583689</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005230454887258049</v>
+        <v>0.03512201576824409</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06269594600018046</v>
+        <v>0.04106385352460401</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01617147238725575</v>
+        <v>0.02348795769939196</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04697119651708706</v>
+        <v>0.05445612045810715</v>
       </c>
       <c r="P26" t="n">
-        <v>0.00626129242131398</v>
+        <v>0.007141579834520253</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.008520487568968066</v>
+        <v>0.04652107540239633</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02192962548360069</v>
+        <v>0.0249363911580038</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01773158318033363</v>
+        <v>0.03280734865214319</v>
       </c>
       <c r="T26" t="n">
-        <v>0.07807481328769816</v>
+        <v>0.04557236872503761</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05265535522923765</v>
+        <v>0.04212799614258195</v>
       </c>
       <c r="V26" t="n">
-        <v>0.04586805863504568</v>
+        <v>0.0510063167460112</v>
       </c>
       <c r="W26" t="n">
-        <v>0.07383196109114715</v>
+        <v>0.03955316120399555</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0635629314498804</v>
+        <v>0.008246013127768854</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.03210963564788923</v>
+        <v>0.06369901053547856</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07489390996151288</v>
+        <v>0.01740849388840496</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01947997517502987</v>
+        <v>0.03029885292738389</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.06641385511383599</v>
+        <v>0.06322229278135137</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02825328373904094</v>
+        <v>0.02367451377845419</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.06446170754540655</v>
+        <v>0.05859436687071244</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.08841570949361846</v>
+        <v>0.0540985338308452</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.009721453588230412</v>
+        <v>0.008249597427233564</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.04678217655550686</v>
+        <v>0.05885371620506905</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2038191394371592</v>
+        <v>0.2184439870437024</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.3852796094634721</v>
+        <v>0.7235915839315218</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04213784883152898</v>
+        <v>0.06339654179354193</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08055186754938487</v>
+        <v>0.08149294217372312</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01136931694724684</v>
+        <v>0.02606944169519866</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0001686946570673148</v>
+        <v>0.07208016064092547</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03619737513137034</v>
+        <v>0.0005618834662892639</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03832074294774098</v>
+        <v>0.07426898921237698</v>
       </c>
       <c r="L27" t="n">
-        <v>0.006198954298303539</v>
+        <v>0.02171458570503149</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02300178441108871</v>
+        <v>0.006266586331169544</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07513048926240998</v>
+        <v>0.009760190113221148</v>
       </c>
       <c r="O27" t="n">
-        <v>0.05427338550934577</v>
+        <v>0.01763604571998388</v>
       </c>
       <c r="P27" t="n">
-        <v>0.007589774379670972</v>
+        <v>0.03639345004375009</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.003587790170272514</v>
+        <v>0.04067079565033412</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03099436800764559</v>
+        <v>0.006839684777676869</v>
       </c>
       <c r="S27" t="n">
-        <v>0.07631985474808782</v>
+        <v>0.01807624122588962</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0001417567345729245</v>
+        <v>0.02641217256950934</v>
       </c>
       <c r="U27" t="n">
-        <v>0.002301017462418274</v>
+        <v>0.06886845247373524</v>
       </c>
       <c r="V27" t="n">
-        <v>0.07322685284565694</v>
+        <v>0.01979455646313544</v>
       </c>
       <c r="W27" t="n">
-        <v>0.07172784938927272</v>
+        <v>0.05115524085866086</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01503974771821199</v>
+        <v>0.01868715298090396</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.09227113179985505</v>
+        <v>0.07687291624623259</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.07631918627127529</v>
+        <v>0.07300173017901691</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.03004993837944378</v>
+        <v>0.03607995462980358</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03221961234709302</v>
+        <v>0.07231145127761726</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.01428026092314</v>
+        <v>0.01060556283229158</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.07212984756039617</v>
+        <v>0.01546298357630475</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.02810039183936925</v>
+        <v>0.008982835577374056</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.006347875305768691</v>
+        <v>0.02247619877780315</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.284572361575301e-06</v>
+        <v>0.02406125300849907</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2335805637393472</v>
+        <v>0.2387531187765224</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.127942349395925</v>
+        <v>0.1258080561642049</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01199928498043851</v>
+        <v>0.03720074538461145</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0664296809618397</v>
+        <v>0.01474106431095742</v>
       </c>
       <c r="H28" t="n">
-        <v>0.007378639027284589</v>
+        <v>0.009525793852679303</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02391541493497739</v>
+        <v>0.01427696771981379</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03697661161203456</v>
+        <v>0.03048330732005189</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04057448082407489</v>
+        <v>0.0137747908302948</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002023543675678511</v>
+        <v>0.006418864306859421</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06450705307943748</v>
+        <v>0.0266679876109972</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05836035966849556</v>
+        <v>0.0414950717877501</v>
       </c>
       <c r="O28" t="n">
-        <v>0.05744888779497267</v>
+        <v>0.0083547109887087</v>
       </c>
       <c r="P28" t="n">
-        <v>0.05895077671100567</v>
+        <v>0.0682604999553337</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.06223917070283923</v>
+        <v>0.06519979013458325</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0275221799338249</v>
+        <v>0.06088926153290734</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01401122483323703</v>
+        <v>0.004426965033288937</v>
       </c>
       <c r="T28" t="n">
-        <v>0.003605943919286461</v>
+        <v>0.06688260625196667</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01149457926045614</v>
+        <v>0.04509714287003682</v>
       </c>
       <c r="V28" t="n">
-        <v>0.05272255876730136</v>
+        <v>0.06908501927860639</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06473167172898664</v>
+        <v>0.06354256451445704</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01977723812613134</v>
+        <v>0.06536121486446742</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.03249377459832137</v>
+        <v>0.06811605566412095</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03014052819671698</v>
+        <v>0.03290134137961252</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.007538966598619791</v>
+        <v>0.009169359241592456</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0577655529516015</v>
+        <v>0.05221230961447373</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02755364059708834</v>
+        <v>0.00473181499476074</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02214020298129419</v>
+        <v>0.03404055675435297</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.07214426985991143</v>
+        <v>0.06190525563298579</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.04759703830346596</v>
+        <v>0.007319518510683095</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.01795672537067769</v>
+        <v>0.0179194196590462</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.02773728678316777</v>
+        <v>0.0597620589347017</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1465641183418754</v>
+        <v>0.1380347212882275</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08584986788453368</v>
+        <v>0.06773374617356212</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00865870719990218</v>
+        <v>0.03441966102922087</v>
       </c>
       <c r="H29" t="n">
-        <v>0.005424398903436572</v>
+        <v>0.05727174853727534</v>
       </c>
       <c r="I29" t="n">
-        <v>0.031342509101825</v>
+        <v>0.001466247255491638</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0313769892764944</v>
+        <v>0.05106996988928562</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03876351482468297</v>
+        <v>0.003059705246305382</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01185382839304254</v>
+        <v>0.03256312303325477</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01538488651583621</v>
+        <v>0.01693672395393163</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01445967024050375</v>
+        <v>0.01053911714470198</v>
       </c>
       <c r="O29" t="n">
-        <v>0.05400407124660555</v>
+        <v>0.007723230309093393</v>
       </c>
       <c r="P29" t="n">
-        <v>0.08540325722451521</v>
+        <v>0.06666557332607374</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.008543496948068075</v>
+        <v>0.0003017227530540903</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02368586105899361</v>
+        <v>0.03162277821604018</v>
       </c>
       <c r="S29" t="n">
-        <v>0.05010741750902562</v>
+        <v>0.06413897758379172</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02479630738160231</v>
+        <v>0.05332879444182666</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07829803857652452</v>
+        <v>0.009650620705742206</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03305634478548147</v>
+        <v>0.02938156737056587</v>
       </c>
       <c r="W29" t="n">
-        <v>0.04030238411457075</v>
+        <v>0.0421181675897592</v>
       </c>
       <c r="X29" t="n">
-        <v>0.009852103615706131</v>
+        <v>0.01498628704083348</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01124342288197848</v>
+        <v>0.02763684755630116</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.06661490442638356</v>
+        <v>0.07401645339731658</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.02109375717403325</v>
+        <v>0.01103073709438007</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.06699015968062878</v>
+        <v>0.08177920809281873</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.02679362138302469</v>
+        <v>0.003894883802526875</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.05896727166510474</v>
+        <v>0.04966718082386248</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.07251735581688543</v>
+        <v>0.07323605192309232</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.02235799405943146</v>
+        <v>0.01505710126786062</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.002257858111179232</v>
+        <v>0.06870377444203121</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.09146729309345004</v>
+        <v>0.08969102216433837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.09582127598589384</v>
+        <v>0.09696372624719274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007438574530275075</v>
+        <v>0.0005491113698148716</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05330286388278739</v>
+        <v>0.05798756374887654</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05060750549093596</v>
+        <v>0.003379286519339966</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01777834814970522</v>
+        <v>0.06075368187044464</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06215644920011005</v>
+        <v>0.04158858624993749</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002310262254464411</v>
+        <v>0.003170353529199444</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02685312872425316</v>
+        <v>0.06093121938590076</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002249595297802431</v>
+        <v>0.02077249523036119</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02467473717473666</v>
+        <v>0.007536236468251935</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04829753634830677</v>
+        <v>0.006556262089996981</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01887357255496649</v>
+        <v>0.02202388534062165</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01762576104666707</v>
+        <v>0.06036606184962477</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04109394607506053</v>
+        <v>0.02767076766146541</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01978201190667042</v>
+        <v>0.06365643448900557</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06809349296376499</v>
+        <v>0.05715201787792592</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007811596325574977</v>
+        <v>0.006829018781206856</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05055889730483643</v>
+        <v>0.05427280988607645</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0005202339272174253</v>
+        <v>0.02688669937653755</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06700718347409644</v>
+        <v>0.0398858366379433</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02148078668763307</v>
+        <v>0.01321412286449666</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.005089814697395648</v>
+        <v>0.04924408890913976</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.03044002807980898</v>
+        <v>0.03562247038290096</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05281472967017108</v>
+        <v>0.04427089065240571</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.06620974473015886</v>
+        <v>0.0366059356517358</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.06546468565662364</v>
+        <v>0.06082215294027637</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.06259765000115139</v>
+        <v>0.06200158642376712</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.06533375379819656</v>
+        <v>0.04804045421518329</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04353311004662893</v>
+        <v>0.02820996959756302</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.04128234669994367</v>
+        <v>0.07628696022732853</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.117253522094997</v>
+        <v>0.1223835435282637</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02452043085692839</v>
+        <v>0.006387122201980507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003061523962309898</v>
+        <v>0.04317038534836325</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01667838013414361</v>
+        <v>0.01188285145166101</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02826357341070095</v>
+        <v>0.05413769951926851</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05697389007917712</v>
+        <v>0.01159188353862288</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02359824453567795</v>
+        <v>0.006508379944585089</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08047131422694108</v>
+        <v>0.06871924043581176</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02720571005017069</v>
+        <v>0.000141277464297972</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08046270273670235</v>
+        <v>0.0406812064144035</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08179819818466165</v>
+        <v>0.1014638891571082</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02969632983100218</v>
+        <v>0.003504523821555082</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05139962781896994</v>
+        <v>0.08935546989717529</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01420871148726222</v>
+        <v>0.01127827308330521</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02823499004369319</v>
+        <v>0.009102977833742089</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04442190951057648</v>
+        <v>0.007349699336117182</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01924113685353508</v>
+        <v>0.1066694560790661</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06044233674378615</v>
+        <v>0.04657306571854147</v>
       </c>
       <c r="W3" t="n">
-        <v>0.008643947574485859</v>
+        <v>0.08439670844924844</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02435173140042567</v>
+        <v>0.03115489204010008</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.05972663249610562</v>
+        <v>0.08229933930026298</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03611422458586953</v>
+        <v>0.0141886276668735</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0476630445615013</v>
+        <v>0.001608331706266242</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02703711873684003</v>
+        <v>0.0720794622251564</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01635819033033377</v>
+        <v>0.003378221616437967</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.01166047965619269</v>
+        <v>0.009292583643834271</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02263278577088984</v>
+        <v>0.01623692948073743</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0254603321502371</v>
+        <v>0.03288811685724205</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.04967250227087967</v>
+        <v>0.03395938576823541</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.115845973951684</v>
+        <v>0.08504947791364285</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.14114426299372</v>
+        <v>0.1405756064098041</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005057416297737676</v>
+        <v>0.01363903350112232</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07521975148689169</v>
+        <v>0.031254428612968</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002329548465527687</v>
+        <v>0.004083432977373831</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03486416453846217</v>
+        <v>0.04536099170430576</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04328687907663498</v>
+        <v>0.0194410043640114</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0355480471753173</v>
+        <v>9.329854622312871e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01460866194191374</v>
+        <v>0.00628583637419145</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02051609083336026</v>
+        <v>0.07778650062889431</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08445004944911924</v>
+        <v>0.04088358141773043</v>
       </c>
       <c r="O4" t="n">
-        <v>0.007937176771171582</v>
+        <v>0.0453594462622661</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07260197160457725</v>
+        <v>0.04112258063452152</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001955524845639654</v>
+        <v>0.007714481324726111</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0004903336673788353</v>
+        <v>0.01605750313786108</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06360094757261864</v>
+        <v>0.05316566658049561</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02045596260736478</v>
+        <v>0.04542707869115446</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03036691866956591</v>
+        <v>0.06848287596238635</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04400944257000756</v>
+        <v>0.04771157724295516</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0555993335613764</v>
+        <v>0.07780276984962792</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07599466560333452</v>
+        <v>0.02654331435655894</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0201509793720905</v>
+        <v>0.01165407073408306</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04108765611654265</v>
+        <v>0.04805165645257858</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07456307894248142</v>
+        <v>0.0495901230865799</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02667299554728784</v>
+        <v>0.005113417326296295</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01770209689657564</v>
+        <v>0.03899486026569499</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.04143030578375903</v>
+        <v>0.04141004465342243</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02928538386753503</v>
+        <v>0.06796829495832742</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.04310259817932152</v>
+        <v>0.02643980556291805</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.01711201855640663</v>
+        <v>0.04256232479072532</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.3113436560685949</v>
+        <v>-0.3151499939134525</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3297448237849986</v>
+        <v>0.2167822523422782</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07552195112332254</v>
+        <v>0.06628208065542915</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03026134602263618</v>
+        <v>0.05094432059657934</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01941652906500029</v>
+        <v>0.001123526165582118</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05712507539692042</v>
+        <v>0.04027665105746863</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06479611348143378</v>
+        <v>0.05719663285230245</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08465595622700728</v>
+        <v>0.07083522687871591</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0165790382312986</v>
+        <v>0.01662543428035822</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02363550028311473</v>
+        <v>0.03834230434442481</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01795815894665896</v>
+        <v>0.05765221074466538</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008201835925912438</v>
+        <v>0.02474922700469939</v>
       </c>
       <c r="P5" t="n">
-        <v>0.000773943498128835</v>
+        <v>0.006249766491372611</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05389711644802827</v>
+        <v>0.01747713527461094</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001499832097996771</v>
+        <v>0.003030979312851316</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02848933902632688</v>
+        <v>0.03329045766945901</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03927111159839186</v>
+        <v>0.0662407980961304</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08722353472547921</v>
+        <v>0.01267858260747573</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08264393508302814</v>
+        <v>0.06362269416612147</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04433705449126759</v>
+        <v>0.05140232314577982</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01356104855185752</v>
+        <v>0.02539698119400218</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01044202576796786</v>
+        <v>0.04415045455527234</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03558374887451955</v>
+        <v>0.005918806679379236</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02831714426670576</v>
+        <v>0.02521945827953169</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05289997413938231</v>
+        <v>0.05446617700752129</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0284102541218022</v>
+        <v>0.04321435331867318</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01506973345895763</v>
+        <v>0.0005242055559923456</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01428781643288064</v>
+        <v>0.04358513198213436</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.008091150232739437</v>
+        <v>0.01913869706128312</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.05704973248123449</v>
+        <v>0.06036538302218344</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.3848948545473017</v>
+        <v>-0.3282556134615772</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2317814348217028</v>
+        <v>0.2321451977057768</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005422196276223316</v>
+        <v>0.01709600624154959</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07823813810999061</v>
+        <v>0.05785650173859958</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002527244514802911</v>
+        <v>0.01307464425147265</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06568772886899728</v>
+        <v>0.0008883887226582536</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01177745392855292</v>
+        <v>0.08075572648188578</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01747096534141821</v>
+        <v>0.02320365350868027</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006978605363758207</v>
+        <v>0.0249023168454102</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03994990901623527</v>
+        <v>0.004584783241902116</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04311788749995665</v>
+        <v>0.05726294123808016</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03597311360794116</v>
+        <v>0.002765492117014295</v>
       </c>
       <c r="P6" t="n">
-        <v>0.006568906149100092</v>
+        <v>0.04012539391626066</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01338140906375863</v>
+        <v>0.01229334533085119</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01221777550431057</v>
+        <v>0.07243945534886327</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04718773884219107</v>
+        <v>0.01654153927226141</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07152698931003013</v>
+        <v>0.09108031666518794</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02811635396041065</v>
+        <v>0.004171591311701253</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05185773386071635</v>
+        <v>0.05611607875171225</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07554931059353194</v>
+        <v>0.08055047310118277</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03553011635753651</v>
+        <v>0.04684225093387839</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01709581275905634</v>
+        <v>0.05597001191894651</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02133276665540869</v>
+        <v>0.02765138974220677</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.05708106114291259</v>
+        <v>0.03123354241796039</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.07139647857917135</v>
+        <v>0.03758183054981511</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.02362232228476928</v>
+        <v>0.02985340803056538</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.00734372125256189</v>
+        <v>0.01957950503449405</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02214462044162823</v>
+        <v>0.03417273292990155</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.06981809238808509</v>
+        <v>0.03140254507021394</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06108554832694399</v>
+        <v>0.03000413528674432</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1704518841653287</v>
+        <v>0.1974506857778885</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2887130595503258</v>
+        <v>0.2703097765864266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09586353690788305</v>
+        <v>0.0703916187104186</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01082608262857157</v>
+        <v>0.07046774115532287</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01342319427281843</v>
+        <v>0.01748350878380813</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04026258448660548</v>
+        <v>0.01892120085321113</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006316394342017784</v>
+        <v>0.01724358329698873</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03865166505123815</v>
+        <v>0.08286756378698308</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09018019925809596</v>
+        <v>0.05166846141719861</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09370838681945667</v>
+        <v>0.003433485488975596</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01271715608099819</v>
+        <v>0.05897579919728788</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08252799302863528</v>
+        <v>0.07615097232095168</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005429502168692227</v>
+        <v>0.0325688614390385</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005193318645954836</v>
+        <v>0.05139673959388521</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02549369190562348</v>
+        <v>0.02993366630815113</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08538008172453586</v>
+        <v>0.03388939880814223</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01531619362313288</v>
+        <v>0.04351753768330409</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05922614798902009</v>
+        <v>0.03154603814978078</v>
       </c>
       <c r="V7" t="n">
-        <v>0.008030445116220253</v>
+        <v>0.03022741841545609</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05753456561105059</v>
+        <v>0.04909817763413541</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02479895064367502</v>
+        <v>0.02232572243927007</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01328772310632909</v>
+        <v>0.0004149116701693136</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.004713151423936782</v>
+        <v>0.01728236112471776</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02819416995680513</v>
+        <v>0.01497191017229482</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02361278820503815</v>
+        <v>0.0371287479927289</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.06482496201486691</v>
+        <v>0.01710757437933663</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.002646775787566631</v>
+        <v>0.01191429613728914</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03767780389146134</v>
+        <v>0.005418730320494437</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01388409560873559</v>
+        <v>0.02687814732238313</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.04596319460885053</v>
+        <v>0.07677582539827599</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2978876773838351</v>
+        <v>0.3014597271804503</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2627041357863127</v>
+        <v>0.2529544660219221</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03368867444909927</v>
+        <v>0.01894464726220441</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05613564566256891</v>
+        <v>0.0783840594610193</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003772499851157749</v>
+        <v>0.003049804521829609</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04985268764205927</v>
+        <v>0.005088452760187804</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01915676905232233</v>
+        <v>0.06750343776932351</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02298236737228282</v>
+        <v>0.007506985108294276</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02726789071052826</v>
+        <v>0.03574878320526013</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02814440527693008</v>
+        <v>0.0675911490725202</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01529632359744084</v>
+        <v>0.01508961816653699</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01326172117652203</v>
+        <v>0.00490508709045784</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06307975185072591</v>
+        <v>0.009815897989295982</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02219502721522628</v>
+        <v>0.07065259273249652</v>
       </c>
       <c r="R8" t="n">
-        <v>0.05572710212325242</v>
+        <v>0.03109433648989141</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03366563983506923</v>
+        <v>0.01730396797607055</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05378967028415665</v>
+        <v>0.06986841972152294</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004291283363548067</v>
+        <v>0.005221986502560018</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04464280300288376</v>
+        <v>0.06251958213212691</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06843921828484216</v>
+        <v>0.06997550193752682</v>
       </c>
       <c r="X8" t="n">
-        <v>0.05625109923571524</v>
+        <v>0.01560267947779609</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002942373066609944</v>
+        <v>0.003540890875452429</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001911279053388849</v>
+        <v>0.008397247451551496</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01285416465307352</v>
+        <v>0.06281580571495907</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.05216144760296733</v>
+        <v>0.01222818846374886</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.06237317043568959</v>
+        <v>0.04452440427422173</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.04027103502931596</v>
+        <v>0.000696197867112614</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.05291717867966715</v>
+        <v>0.06125953853481599</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.03293755170186136</v>
+        <v>0.07491978649126911</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.06999121979109511</v>
+        <v>0.07575095094994738</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1124930609160521</v>
+        <v>0.1234611316939594</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2911992930423186</v>
+        <v>0.2888477075514401</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08355330949668634</v>
+        <v>0.08467989243615141</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009211816756623263</v>
+        <v>0.04437737803300096</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004361242663212491</v>
+        <v>0.0003894897057521115</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08022321527807386</v>
+        <v>0.0429192234459802</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01985032335951967</v>
+        <v>0.0452379907055535</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06290835069566142</v>
+        <v>0.08776419621551536</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02947155280097419</v>
+        <v>0.03167000209895295</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02570627833679799</v>
+        <v>0.06204666078129882</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01697687946012005</v>
+        <v>0.03119517996274296</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04250282115953877</v>
+        <v>0.02347837765120186</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0218544936345717</v>
+        <v>0.02835686858843108</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03757584631787992</v>
+        <v>0.00555297290651368</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04404182725248118</v>
+        <v>0.03769281572553764</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0331496080498155</v>
+        <v>0.02228328254670523</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02242147112653749</v>
+        <v>0.01617347090667612</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02647257694658854</v>
+        <v>0.005361543910430584</v>
       </c>
       <c r="V9" t="n">
-        <v>0.07510021276038988</v>
+        <v>0.08336527432926559</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0569904678510091</v>
+        <v>0.005373154495959466</v>
       </c>
       <c r="X9" t="n">
-        <v>4.612604443080512e-05</v>
+        <v>0.008634405772548979</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03428748507527637</v>
+        <v>0.05102169689837532</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05910473993892641</v>
+        <v>0.07762665948858477</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.05877127959172371</v>
+        <v>0.05775721535508965</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03637518691409065</v>
+        <v>0.01423126382682849</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.008928872865403193</v>
+        <v>0.01272580465763118</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01062072853049806</v>
+        <v>0.00734435448686922</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.02395050489012104</v>
+        <v>0.01566070789214955</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0301666008861869</v>
+        <v>0.06008629265770438</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.04537618131686173</v>
+        <v>0.03699382451854868</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1480842653263063</v>
+        <v>0.154402335612279</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1788578457486587</v>
+        <v>0.1803742365221004</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0228183694458308</v>
+        <v>0.009784544086012217</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08775406977528233</v>
+        <v>0.06368520778816056</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006405348672873863</v>
+        <v>0.0064902692540272</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01306099466107683</v>
+        <v>0.0559485498509102</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007121717661302998</v>
+        <v>0.001294898199493365</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004855053224312062</v>
+        <v>0.01480679262014285</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05727730015729111</v>
+        <v>0.03769763480809391</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04811429274479731</v>
+        <v>0.05892954556325462</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04517346732729206</v>
+        <v>0.06736451431755766</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03166722823073286</v>
+        <v>0.02987439288633188</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03282865063903884</v>
+        <v>0.01591855765024844</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0201617545992761</v>
+        <v>0.02078803011367463</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01877472139722636</v>
+        <v>0.03425348403198944</v>
       </c>
       <c r="S10" t="n">
-        <v>0.003645565583764415</v>
+        <v>0.02385853120564027</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02303982693105681</v>
+        <v>0.05849451737381973</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02908925328133399</v>
+        <v>0.006136472825512833</v>
       </c>
       <c r="V10" t="n">
-        <v>0.07532688667138146</v>
+        <v>0.04309874461727481</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08383404244288381</v>
+        <v>0.06392756788829827</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03145341704175901</v>
+        <v>0.02347481658740008</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.006125639346588913</v>
+        <v>0.007506880594784092</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.07496195674018478</v>
+        <v>0.04033141334600433</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.009116603206837182</v>
+        <v>0.04395243145735168</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.08079116459873777</v>
+        <v>0.04998707209373362</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01194807943935497</v>
+        <v>0.06691860353605121</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.03434360462735288</v>
+        <v>0.0001850919621127774</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.03368523301100198</v>
+        <v>0.04190906341883867</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.06172114932929806</v>
+        <v>0.05645289712472014</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.04490460921213046</v>
+        <v>0.05692947479856064</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.03216676452493511</v>
+        <v>0.03769039930365871</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2064146401370263</v>
+        <v>0.2178317789107055</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02001423619075589</v>
+        <v>0.03133944711955288</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04728056361067703</v>
+        <v>0.05273077321037298</v>
       </c>
       <c r="H11" t="n">
-        <v>0.009499902560317859</v>
+        <v>0.04546112629652317</v>
       </c>
       <c r="I11" t="n">
-        <v>0.025010768780252</v>
+        <v>0.005065733496874437</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007319545162260285</v>
+        <v>0.02791885116225401</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0818919861307123</v>
+        <v>0.0590422808717455</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005553002915589978</v>
+        <v>0.005021467348803508</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0210090076716929</v>
+        <v>0.008796071556599512</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05690045379861926</v>
+        <v>0.03856856103483046</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008149304013159433</v>
+        <v>0.03932073262972475</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03371802475660441</v>
+        <v>0.04308379396546912</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03888915183349393</v>
+        <v>0.08255865313403279</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07723178162412944</v>
+        <v>0.06181490770186991</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01561796284191769</v>
+        <v>0.005465616123425987</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01901699956793696</v>
+        <v>0.002165036153396976</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007570719914481838</v>
+        <v>0.04293391626934259</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04114902694120289</v>
+        <v>0.03620973147516741</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08113907607506432</v>
+        <v>0.07021200324549282</v>
       </c>
       <c r="X11" t="n">
-        <v>0.04109009250068578</v>
+        <v>0.01379032887421297</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01136984554303931</v>
+        <v>0.00252313330581196</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02503457671212009</v>
+        <v>0.0291821459619088</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.07641533707806797</v>
+        <v>0.07131500048948941</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.05423794925074645</v>
+        <v>0.03752044718271622</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.004296332896083345</v>
+        <v>0.01914468090911154</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.05844692679746115</v>
+        <v>0.03461882013658361</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.05390579521727984</v>
+        <v>0.03287101704062428</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.06778529949312811</v>
+        <v>0.06843813166160875</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01045633012251958</v>
+        <v>0.03288759164245356</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.05437954479856622</v>
+        <v>0.01916269804402507</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1493821427646201</v>
+        <v>0.1480430459045065</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004681365724879948</v>
+        <v>0.05106975504885058</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03123788156995716</v>
+        <v>0.01815577586471944</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0422989038416648</v>
+        <v>0.01813327120240851</v>
       </c>
       <c r="I12" t="n">
-        <v>0.007887532828650713</v>
+        <v>0.00915307116229707</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02980462713081372</v>
+        <v>0.006265777883075244</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006808671109897546</v>
+        <v>0.005447710827174717</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02771463078070956</v>
+        <v>0.001290724292146068</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02642272223410136</v>
+        <v>0.09738419078636887</v>
       </c>
       <c r="N12" t="n">
-        <v>0.03331653881191145</v>
+        <v>0.008771591035489395</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02083361964093917</v>
+        <v>0.008538552821050234</v>
       </c>
       <c r="P12" t="n">
-        <v>0.009034374625136111</v>
+        <v>0.03640626752635207</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01690663578493917</v>
+        <v>0.00920268923818216</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05023918429548279</v>
+        <v>0.01731466800211223</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02348042918463777</v>
+        <v>0.07548811570354728</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03270163168215283</v>
+        <v>0.05822652849481041</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01369653524215765</v>
+        <v>0.03207217150151211</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05263648542510377</v>
+        <v>0.06613476350437453</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06755430696605016</v>
+        <v>0.07931368818187014</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05432169131433117</v>
+        <v>0.03983232515631129</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.06101890663599092</v>
+        <v>0.01854819071642416</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.06184245036326053</v>
+        <v>0.001773038405541347</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.06278147578358562</v>
+        <v>0.0432562131605704</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06633567018027391</v>
+        <v>0.08442932097597336</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.03762375306851126</v>
+        <v>0.04247211406482924</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01952133617287409</v>
+        <v>0.003752527534588543</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.07285399853944388</v>
+        <v>0.04553220698865935</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05830666913759707</v>
+        <v>0.03318278993739988</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.008137971924945992</v>
+        <v>0.08885195998336126</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0748415987255627</v>
+        <v>0.070459616644268</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1556109218112561</v>
+        <v>0.1824518015355226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05252245071805365</v>
+        <v>0.09240451364265477</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007896807129801616</v>
+        <v>0.06362049102804337</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07512922818595548</v>
+        <v>0.05178646487494135</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01487641551607542</v>
+        <v>0.0282939216595641</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05472209905404164</v>
+        <v>0.06609415270272317</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00919739004317161</v>
+        <v>0.02169931183114247</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005837796795798007</v>
+        <v>0.002263623514202396</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07078907034930645</v>
+        <v>0.01842561517836652</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01050632014439546</v>
+        <v>0.01372228635999717</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004142489430560629</v>
+        <v>0.003208811487949527</v>
       </c>
       <c r="P13" t="n">
-        <v>0.005756511016641209</v>
+        <v>0.02878331316458211</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002836109647432032</v>
+        <v>0.01728815638531902</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07720557670987691</v>
+        <v>0.07241316163951579</v>
       </c>
       <c r="S13" t="n">
-        <v>0.007287388681463738</v>
+        <v>0.01970077880776749</v>
       </c>
       <c r="T13" t="n">
-        <v>0.08319547188879926</v>
+        <v>0.002788256536837094</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003939938520647167</v>
+        <v>0.01271195030617232</v>
       </c>
       <c r="V13" t="n">
-        <v>0.05281663742722112</v>
+        <v>0.009644200967150827</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07652445496186214</v>
+        <v>0.06595084927504753</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01690471142405135</v>
+        <v>0.002780168355756019</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.04542676181726762</v>
+        <v>0.01433672597446135</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.04229029578141152</v>
+        <v>0.01417143123643744</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.08352957178966496</v>
+        <v>0.06418996092576121</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.03426294902166575</v>
+        <v>0.003501960600389619</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.02871890555203037</v>
+        <v>0.09668585794486215</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01836468179339403</v>
+        <v>0.05522339946148697</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0254841076427934</v>
+        <v>0.03898756867177616</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01760411951201823</v>
+        <v>0.06398465393647328</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.07223173944459915</v>
+        <v>0.05533841353061878</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.06676093810934894</v>
+        <v>0.1165999937804763</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1359740854979459</v>
+        <v>0.1373594998656953</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06549278797827074</v>
+        <v>0.041626258122674</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0500387688177298</v>
+        <v>0.03159197911825627</v>
       </c>
       <c r="H14" t="n">
-        <v>0.007239514225795043</v>
+        <v>0.04384807333599873</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03764228583127183</v>
+        <v>0.04652763362014428</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01988480225083525</v>
+        <v>0.002150869356222292</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01223769178290217</v>
+        <v>0.04027519070649654</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04554044020152431</v>
+        <v>0.02798463005030356</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04860972224342645</v>
+        <v>0.02403760999869981</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04129600463817053</v>
+        <v>0.05440323332967205</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005122290313950193</v>
+        <v>0.0001849419739221585</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01839144427546208</v>
+        <v>0.02812569098691034</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02316618671241024</v>
+        <v>0.02788072101934946</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01530451139158633</v>
+        <v>0.03924894308798075</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04603587161146976</v>
+        <v>0.03766019443222728</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03088805362639704</v>
+        <v>0.05825295437643556</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001512118555543602</v>
+        <v>0.0142861273158094</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06422756362926091</v>
+        <v>0.0520021696453461</v>
       </c>
       <c r="W14" t="n">
-        <v>0.008309427910965152</v>
+        <v>0.01550824908639696</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01008937230076204</v>
+        <v>0.00652965206819984</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07773070370598546</v>
+        <v>0.03188843697713825</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03835406977310257</v>
+        <v>0.05923364777725277</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.03624555843860543</v>
+        <v>0.05241556787730103</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.06426286604762932</v>
+        <v>0.0521492711917509</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02900150887200674</v>
+        <v>0.02728168865002241</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.02781375642441672</v>
+        <v>0.01068987191397593</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.05268136712412131</v>
+        <v>0.0567290759604212</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.07850144042493996</v>
+        <v>0.0605747454302645</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.04437987089145909</v>
+        <v>0.05691257259082769</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2201181347013829</v>
+        <v>0.2437620798510717</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1501389597813984</v>
+        <v>0.1422950627682915</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01427251605900448</v>
+        <v>0.08109961445415359</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06670438129039373</v>
+        <v>0.08301737281670117</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03927174100810565</v>
+        <v>0.01729279980211307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0529204288490037</v>
+        <v>0.05563733837178911</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007298466284014329</v>
+        <v>0.02547892773099852</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06868279247610838</v>
+        <v>0.02537526711655839</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002946091603333008</v>
+        <v>0.006656087579512155</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002701761221260224</v>
+        <v>0.003528255369650228</v>
       </c>
       <c r="N15" t="n">
-        <v>0.06716769015862066</v>
+        <v>0.09536078199549074</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06555937518755653</v>
+        <v>0.004793733763758295</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02075597724732292</v>
+        <v>0.08450483838314482</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04415930790875654</v>
+        <v>0.01571666683944447</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0362122557870197</v>
+        <v>0.02729774020202251</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01586786815834839</v>
+        <v>0.007895544348230853</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03568435370038889</v>
+        <v>0.01653772487286587</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04690340774092122</v>
+        <v>0.02664377802116672</v>
       </c>
       <c r="V15" t="n">
-        <v>0.05641123516484624</v>
+        <v>0.03916351036141352</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01591194948781473</v>
+        <v>0.01369407832485094</v>
       </c>
       <c r="X15" t="n">
-        <v>0.005674899983128388</v>
+        <v>0.01999739060601373</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.07424188838412064</v>
+        <v>0.03664422529686318</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02943845978361961</v>
+        <v>0.04045907140401557</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.07685985206044024</v>
+        <v>0.04349820282692748</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.05130603282963198</v>
+        <v>0.01613623218655324</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.009711945045600332</v>
+        <v>0.02812933380409349</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01117227685138692</v>
+        <v>0.0435452389246748</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.05502695251462616</v>
+        <v>0.04377884179101046</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.001555747958414948</v>
+        <v>0.04168873946092846</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.02558034525621154</v>
+        <v>0.05642866334505463</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2597361785580367</v>
+        <v>0.2488479412876118</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1052535121185163</v>
+        <v>0.1079802621492379</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02125777745441897</v>
+        <v>0.02119718253927548</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03608851652972692</v>
+        <v>0.01765167653948919</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05646710177295723</v>
+        <v>0.01569305822139907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001835823568179586</v>
+        <v>0.01619827158500018</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05438223756180467</v>
+        <v>0.02512469373999653</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02553109226322944</v>
+        <v>0.02204089304307209</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02891809719932294</v>
+        <v>0.02738106592197887</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04193901756887652</v>
+        <v>0.05803687484155019</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0179686191858454</v>
+        <v>0.01387345034530851</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006468444220931166</v>
+        <v>0.02296337347950099</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03674044376508804</v>
+        <v>0.006189800815277586</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02234286660053142</v>
+        <v>0.04093877977049113</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05631138237979073</v>
+        <v>0.063426041939615</v>
       </c>
       <c r="S16" t="n">
-        <v>0.05631700931103745</v>
+        <v>0.02893237252346523</v>
       </c>
       <c r="T16" t="n">
-        <v>0.04875728643301378</v>
+        <v>0.0319296912869964</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02318869519325528</v>
+        <v>0.0589282223223894</v>
       </c>
       <c r="V16" t="n">
-        <v>0.04446917105201771</v>
+        <v>0.06603787304427609</v>
       </c>
       <c r="W16" t="n">
-        <v>0.05243353727523061</v>
+        <v>0.0577077475720745</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0177809361713917</v>
+        <v>0.03091041255370254</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.06629575668684703</v>
+        <v>0.04111663499028943</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.009909442333566866</v>
+        <v>0.006723000590166271</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.002714122843984425</v>
+        <v>0.01589275234226865</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03637354661482542</v>
+        <v>0.06551745163202735</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.04721216574221828</v>
+        <v>0.0233540892402088</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.05867247657722805</v>
+        <v>0.06238451353615918</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0637949305472542</v>
+        <v>0.06411320736751105</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.00119179378471958</v>
+        <v>0.04262156383129424</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.06463770936270659</v>
+        <v>0.05311530438521599</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1098324779247966</v>
+        <v>0.0971190274523487</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1139962521929022</v>
+        <v>0.1279574903196075</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07979783339414075</v>
+        <v>0.05515006498975351</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03374729492157656</v>
+        <v>0.02856714267915789</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0585351368746695</v>
+        <v>0.05597386673205849</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07569277984586098</v>
+        <v>0.07117796658270181</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02205722663870236</v>
+        <v>0.008109509646543505</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03430664925684544</v>
+        <v>0.04396385390068271</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05188877702824572</v>
+        <v>0.06290063376566718</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04928909522189679</v>
+        <v>0.00532261679103012</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01570447175571048</v>
+        <v>0.02079375619737151</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04291777642187032</v>
+        <v>0.06942803477226783</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0005491678220347623</v>
+        <v>0.02423129848636025</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01082724029556882</v>
+        <v>0.02171235482352807</v>
       </c>
       <c r="R17" t="n">
-        <v>0.02995880199265732</v>
+        <v>0.01865664355301346</v>
       </c>
       <c r="S17" t="n">
-        <v>0.03485510944299824</v>
+        <v>0.04809112364859239</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03122106408787241</v>
+        <v>0.06937642055177269</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0243523241554741</v>
+        <v>0.001418883259416858</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02021892185395731</v>
+        <v>0.02028297840452951</v>
       </c>
       <c r="W17" t="n">
-        <v>0.03488447059300923</v>
+        <v>0.008846786320847391</v>
       </c>
       <c r="X17" t="n">
-        <v>0.03674370991047714</v>
+        <v>0.05636867265975846</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01897962627703407</v>
+        <v>0.01675982136777139</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01073356952721752</v>
+        <v>0.02360596717136208</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.00316879843061458</v>
+        <v>0.0187094750191792</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0508667732527262</v>
+        <v>0.0472410307472562</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02310569118943604</v>
+        <v>0.03603430840359248</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0442613321879161</v>
+        <v>0.04224892414648507</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.01448521481279456</v>
+        <v>0.02379180334256682</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.07512744947973816</v>
+        <v>0.06131140083064134</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.07172369332895454</v>
+        <v>0.03992466120609173</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1314691227958478</v>
+        <v>0.1533093946331618</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1035193197637771</v>
+        <v>0.09934710169321309</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05188814648855712</v>
+        <v>0.03158094681442276</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002197067725981554</v>
+        <v>0.008770153261651557</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04045723870475197</v>
+        <v>0.008616098290621777</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05342089524815065</v>
+        <v>0.08152532974667542</v>
       </c>
       <c r="J18" t="n">
-        <v>0.008988870457367923</v>
+        <v>0.02296481515637861</v>
       </c>
       <c r="K18" t="n">
-        <v>0.008252473740842793</v>
+        <v>0.006468429555118529</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0639378992208543</v>
+        <v>0.04120238595674226</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05013323550337591</v>
+        <v>0.0849164287930681</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04262704670116068</v>
+        <v>0.007806664926079627</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0545781168506813</v>
+        <v>0.05873725443396248</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0227807494192865</v>
+        <v>0.01149547478730798</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0623999041196583</v>
+        <v>0.05826187688187835</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05430325619717494</v>
+        <v>0.04918733789559386</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0292347776172505</v>
+        <v>0.05091051130216431</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0246285075845907</v>
+        <v>0.08991145358691205</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04674644851105394</v>
+        <v>0.003729295862410511</v>
       </c>
       <c r="V18" t="n">
-        <v>0.05201301020292111</v>
+        <v>0.05074854718910567</v>
       </c>
       <c r="W18" t="n">
-        <v>0.02781937304662734</v>
+        <v>0.05134790876199208</v>
       </c>
       <c r="X18" t="n">
-        <v>0.003233452545286718</v>
+        <v>0.008489966611343805</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.002545406688272165</v>
+        <v>0.009433827386858105</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02246455088849561</v>
+        <v>0.07422864213444365</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0363321583457753</v>
+        <v>0.02207934931978205</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.001131964941057728</v>
+        <v>0.03125599397944907</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.06399507233641354</v>
+        <v>0.04078930320186272</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.008903830427166205</v>
+        <v>0.007220056746240558</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.05903977520894699</v>
+        <v>0.06397715098834554</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.04065212818259602</v>
+        <v>0.008525752305154767</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.06529464309570238</v>
+        <v>0.01581904412443391</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.01247803826125872</v>
+        <v>-0.005837057972220477</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.125504280022354</v>
+        <v>0.1190081520903568</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08153664223612088</v>
+        <v>0.05391566923910261</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01661931545558313</v>
+        <v>0.008716872854945365</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02760204199806003</v>
+        <v>0.03455563423316158</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01510804311727527</v>
+        <v>0.03734910956166663</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001209071216479237</v>
+        <v>0.02062808138390365</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002466082136393651</v>
+        <v>0.001751260131587162</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01335459148811736</v>
+        <v>0.04158301131741185</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005557192607559657</v>
+        <v>0.008890701681385175</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06060696153712657</v>
+        <v>0.01282306226677863</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007930974386801759</v>
+        <v>0.01550069427908821</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0009209347720604864</v>
+        <v>0.07995331423257387</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.07461650184059368</v>
+        <v>0.003705467289757877</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0385119698330673</v>
+        <v>0.00253303314727001</v>
       </c>
       <c r="S19" t="n">
-        <v>0.07429471393993645</v>
+        <v>0.05458421959839325</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0255017591148185</v>
+        <v>0.05085371709559026</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03322884457707356</v>
+        <v>0.0395691366484979</v>
       </c>
       <c r="V19" t="n">
-        <v>0.07757179148284356</v>
+        <v>0.04416176107021843</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02517975080214755</v>
+        <v>0.02359491696675524</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01617639514925676</v>
+        <v>0.0003826905242241544</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.03342932141994875</v>
+        <v>0.03369301536338044</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.07615621964249086</v>
+        <v>0.07910014709142166</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.08274156249490169</v>
+        <v>0.05717700406288367</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.06149092625630195</v>
+        <v>0.05843824133659011</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.005084489617375812</v>
+        <v>0.04655813297463019</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.06418304618771668</v>
+        <v>0.04564702065619578</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.04303333559763695</v>
+        <v>0.02805213735646021</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.01246139810839225</v>
+        <v>0.07020193386992386</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.02342612298391956</v>
+        <v>0.04608001376620201</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.02389798348569629</v>
+        <v>0.02916049217734911</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1188616996210033</v>
+        <v>0.1200365414313008</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01339917362467671</v>
+        <v>0.007643641042013327</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04345009090771699</v>
+        <v>0.01912224094559932</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02574468728942704</v>
+        <v>0.04037906930424121</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006755137411003084</v>
+        <v>0.06654255802459</v>
       </c>
       <c r="J20" t="n">
-        <v>0.015669855098234</v>
+        <v>0.06612364085615351</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003919073413443206</v>
+        <v>0.001219613613064109</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07480992435869428</v>
+        <v>0.01871255309547177</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02364534872876312</v>
+        <v>0.05730558474530299</v>
       </c>
       <c r="N20" t="n">
-        <v>0.04116337236301202</v>
+        <v>0.02865082560963238</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07279134175739825</v>
+        <v>0.05122989054036166</v>
       </c>
       <c r="P20" t="n">
-        <v>0.07398248272813346</v>
+        <v>0.04254633530059727</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.07244613884219961</v>
+        <v>0.02944752471890788</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05981579443083606</v>
+        <v>0.05192599210888403</v>
       </c>
       <c r="S20" t="n">
-        <v>0.04587107484923011</v>
+        <v>0.05802502566812735</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01028711412859732</v>
+        <v>0.006405989372552047</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04356250489801909</v>
+        <v>0.02370827625783486</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06805814771269986</v>
+        <v>0.006316857344893055</v>
       </c>
       <c r="W20" t="n">
-        <v>0.002418402327017048</v>
+        <v>0.001404009265762874</v>
       </c>
       <c r="X20" t="n">
-        <v>0.06974642237150941</v>
+        <v>0.04330746810913488</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01312455624797927</v>
+        <v>0.05617285945119079</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03594702474721397</v>
+        <v>0.03216873362050991</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01907042541409662</v>
+        <v>0.04064979720028833</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.02488773655838651</v>
+        <v>0.01988759992624274</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.013174197761827</v>
+        <v>0.03769295909892009</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01872413135376868</v>
+        <v>0.01391557128317803</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.02184783874656634</v>
+        <v>0.06600117108842997</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.01793982897984221</v>
+        <v>0.04643568130752726</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0712753390218076</v>
+        <v>0.06705853110058833</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1206677653397234</v>
+        <v>0.1301913552171849</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.083934975367852</v>
+        <v>0.6751868576768647</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007113879064293115</v>
+        <v>0.03285922855497159</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06440248821841971</v>
+        <v>0.03793446827978183</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0181778638160115</v>
+        <v>0.01032792996364669</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06528593908167246</v>
+        <v>0.01657836799013115</v>
       </c>
       <c r="J21" t="n">
-        <v>0.007002639204732227</v>
+        <v>0.01151468417883306</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08104425137736418</v>
+        <v>0.04814998932813859</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03486903983437745</v>
+        <v>0.04695158964180478</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06348252698898733</v>
+        <v>0.01805766615649037</v>
       </c>
       <c r="N21" t="n">
-        <v>0.007558735879303864</v>
+        <v>0.03104738758065648</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02084366003495498</v>
+        <v>0.008465697729487406</v>
       </c>
       <c r="P21" t="n">
-        <v>0.07619500501232836</v>
+        <v>0.07946650748239581</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06279888295382209</v>
+        <v>0.03710089250543273</v>
       </c>
       <c r="R21" t="n">
-        <v>0.005409059980609451</v>
+        <v>0.008021922917453067</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01016371192680147</v>
+        <v>0.04658399094469102</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01821304681417941</v>
+        <v>0.01494902584820922</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01195948424828969</v>
+        <v>0.06820291774212735</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02846174533073831</v>
+        <v>0.0757128340322825</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04281155716046082</v>
+        <v>0.0673445644000841</v>
       </c>
       <c r="X21" t="n">
-        <v>0.009682353915356124</v>
+        <v>0.03727735957148326</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.04134328348707758</v>
+        <v>0.07780093816225292</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.003627963492891376</v>
+        <v>0.008608268430267031</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.05276309282965949</v>
+        <v>0.06373524169697241</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01954270690043938</v>
+        <v>0.02157462523684559</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.05453405760506687</v>
+        <v>0.008983776554131965</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0663661177281957</v>
+        <v>0.05004793328120649</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.09098825028889855</v>
+        <v>0.01035565051347982</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.03181306081135975</v>
+        <v>0.06137883747791665</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.003545596013708715</v>
+        <v>0.0009677037988260448</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.08366129917890719</v>
+        <v>0.0747842873191851</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1319306181233326</v>
+        <v>0.132009267945828</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0208779710593258</v>
+        <v>0.06763705889287921</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04606534645800461</v>
+        <v>0.01972605293933457</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07636290008825329</v>
+        <v>0.03943822529403406</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04190049377762316</v>
+        <v>0.03138568487986099</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002728743053747027</v>
+        <v>0.008857888657554916</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07642633041657236</v>
+        <v>0.06626265699826185</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04057702712628972</v>
+        <v>0.005678066210777653</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01832145373343074</v>
+        <v>0.005206397565495069</v>
       </c>
       <c r="N22" t="n">
-        <v>0.06821301195493161</v>
+        <v>0.04248777704774433</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0006561257880178418</v>
+        <v>0.02755975849218464</v>
       </c>
       <c r="P22" t="n">
-        <v>0.05130707730016732</v>
+        <v>0.05417755183242413</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06073710883909355</v>
+        <v>0.008336544603602945</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01715227133463904</v>
+        <v>0.07151329969094646</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03162205437657886</v>
+        <v>0.007707664882374866</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01877108354351878</v>
+        <v>0.07931105300889874</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008823400190228224</v>
+        <v>0.001201968196073997</v>
       </c>
       <c r="V22" t="n">
-        <v>0.01643418579549684</v>
+        <v>0.05708614832318556</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01425378450570704</v>
+        <v>0.002944058423633218</v>
       </c>
       <c r="X22" t="n">
-        <v>0.05644510825286631</v>
+        <v>0.05090066461726775</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.007160548498796379</v>
+        <v>0.01741599584018473</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.001867018219342839</v>
+        <v>0.0670024647052994</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05873689666528343</v>
+        <v>0.003375671899864066</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.01143249440310653</v>
+        <v>0.04563796741793709</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07749460573492735</v>
+        <v>0.06743213134306686</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.08210088655462461</v>
+        <v>0.05224734582978926</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.06967288556731657</v>
+        <v>0.07436589038975072</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.0229887184958482</v>
+        <v>0.02507722663780278</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0008704682662621042</v>
+        <v>2.678537977016005e-05</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.2127311786372466</v>
+        <v>0.1868864693653663</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1655382170669571</v>
+        <v>0.1460230460101913</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0304087460822289</v>
+        <v>0.001166948814302492</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02135930392928413</v>
+        <v>0.009687133056358047</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07620053129455873</v>
+        <v>0.0008856647137488984</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05161899931778528</v>
+        <v>0.01113370719210411</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06838364563445866</v>
+        <v>0.03283286243911279</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02729951188347514</v>
+        <v>0.05987556907137596</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06545379421097321</v>
+        <v>0.04791348198018166</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03643097691497004</v>
+        <v>0.05072392755500239</v>
       </c>
       <c r="N23" t="n">
-        <v>0.007432286320889508</v>
+        <v>0.01480235953551833</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01159877737673773</v>
+        <v>0.008092804802445288</v>
       </c>
       <c r="P23" t="n">
-        <v>0.008626556589991417</v>
+        <v>0.04788555445010916</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.06056440066994166</v>
+        <v>0.08193166926298828</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05221470882937516</v>
+        <v>0.07641310799507545</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0779977162071651</v>
+        <v>0.02833566751585131</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03261501487399463</v>
+        <v>0.08541505579687785</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01974637855577085</v>
+        <v>0.01030458780736925</v>
       </c>
       <c r="V23" t="n">
-        <v>0.006933774483555396</v>
+        <v>0.07332417389460805</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04105040104699133</v>
+        <v>0.07855149722661756</v>
       </c>
       <c r="X23" t="n">
-        <v>0.07323488930832853</v>
+        <v>0.06193253421893638</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0123920582001204</v>
+        <v>0.002138084572073439</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.04837267436043291</v>
+        <v>0.08444600805072078</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.007517391989586763</v>
+        <v>0.0133629592330082</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02020209467641429</v>
+        <v>0.01841092138337878</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0288250730733387</v>
+        <v>0.00864866398554741</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.05454296191406301</v>
+        <v>0.01039482244144076</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.03329876370228221</v>
+        <v>0.001091656089298566</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.02505150469039607</v>
+        <v>0.07656146384296574</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0006270638628900413</v>
+        <v>0.003737113072982847</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2444756751095968</v>
+        <v>0.1985637956798045</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1189387416024753</v>
+        <v>0.1200477100449954</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02064722265007624</v>
+        <v>0.02017121144600896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07372806310233752</v>
+        <v>0.01115315668578779</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01761071829613946</v>
+        <v>0.01594235652808204</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01319321351402169</v>
+        <v>0.002860576467728213</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04823001120627952</v>
+        <v>0.03848856909033198</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002418599318487941</v>
+        <v>0.001277048303673112</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0431431996320403</v>
+        <v>0.03472622365513783</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04447595364952701</v>
+        <v>0.06647950770221135</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02400013211281864</v>
+        <v>0.07557399004584807</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01621003651739681</v>
+        <v>0.009293871590769009</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01079788413622236</v>
+        <v>0.03154723790723812</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01849333904683373</v>
+        <v>0.01370717382849728</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06127275888145996</v>
+        <v>0.01366800624043613</v>
       </c>
       <c r="S24" t="n">
-        <v>0.03498842348715698</v>
+        <v>0.03477557642367296</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03307895126831807</v>
+        <v>0.04001670438274229</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003108543729734791</v>
+        <v>0.03848995491447292</v>
       </c>
       <c r="V24" t="n">
-        <v>0.08020540693906163</v>
+        <v>0.06969800160182922</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06209306133779387</v>
+        <v>0.07263286029957007</v>
       </c>
       <c r="X24" t="n">
-        <v>0.05251251727368209</v>
+        <v>0.01657034855551752</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.06697344698819152</v>
+        <v>0.02772254006521041</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.007157182916343152</v>
+        <v>0.04265235178872608</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.00669147783001799</v>
+        <v>0.03039524813703477</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01176610641652926</v>
+        <v>0.06919350435026585</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.04876226470538435</v>
+        <v>0.02284137905545148</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.03367942086042152</v>
+        <v>0.01197894305158916</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.07202248190491366</v>
+        <v>0.05222712287249488</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.07666649222205292</v>
+        <v>0.06365298559398017</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.01607309005675686</v>
+        <v>0.07226354941569234</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.02687881298695453</v>
+        <v>-0.02238928487075818</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1523605845424845</v>
+        <v>0.1551306594583466</v>
       </c>
       <c r="F25" t="n">
-        <v>0.051861449609411</v>
+        <v>0.03132844775338754</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00428651048951639</v>
+        <v>0.06480168549287867</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0173343921179933</v>
+        <v>0.06308146594210204</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03642179300915969</v>
+        <v>0.03970670699993991</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06188860171092492</v>
+        <v>0.07033412247859286</v>
       </c>
       <c r="K25" t="n">
-        <v>0.008003829921594596</v>
+        <v>0.0004355995961510013</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02241495030306035</v>
+        <v>0.002707397075299784</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06946109605687584</v>
+        <v>0.01251869354157541</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06680272667666934</v>
+        <v>0.03014043329582547</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006558410097617451</v>
+        <v>0.01504760910746228</v>
       </c>
       <c r="P25" t="n">
-        <v>0.04099664420959322</v>
+        <v>0.06984492117227188</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.081810713135023</v>
+        <v>2.68980335879778e-05</v>
       </c>
       <c r="R25" t="n">
-        <v>0.004969583133586387</v>
+        <v>0.007526122357585824</v>
       </c>
       <c r="S25" t="n">
-        <v>0.07560327565306388</v>
+        <v>0.0598808379889568</v>
       </c>
       <c r="T25" t="n">
-        <v>0.005978537892298611</v>
+        <v>0.05489696305909398</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05607874845133665</v>
+        <v>0.02472454220752832</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02500288029597503</v>
+        <v>0.07126724101339237</v>
       </c>
       <c r="W25" t="n">
-        <v>0.006858477587247678</v>
+        <v>0.03497735721994259</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02188508500799318</v>
+        <v>0.01661353208482732</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.015248660869824</v>
+        <v>0.01881619784405226</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.05937798031212034</v>
+        <v>0.06760012917676071</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.04086788002079371</v>
+        <v>0.0593700420872913</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02672275708941005</v>
+        <v>0.009640316034787391</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.03227566927812028</v>
+        <v>0.04909107425483832</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.05965800885378981</v>
+        <v>0.05493951597736528</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01471151192189728</v>
+        <v>0.0006226162053384988</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.005240387493714875</v>
+        <v>0.03015285478119574</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.08167943880138927</v>
+        <v>0.03990667721796857</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.02815976208962057</v>
+        <v>-0.01100491374560266</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1055584079932902</v>
+        <v>0.1065496581483862</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04749102319657299</v>
+        <v>0.01572532435444936</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04118964972568454</v>
+        <v>0.00211130702017778</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02693064454727504</v>
+        <v>0.02277278627431764</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0470796495896808</v>
+        <v>0.02536896957398186</v>
       </c>
       <c r="J26" t="n">
-        <v>0.004988710099463748</v>
+        <v>0.0008304733933656248</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002178746153583689</v>
+        <v>0.001461573473312511</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03512201576824409</v>
+        <v>0.05379223814307477</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04106385352460401</v>
+        <v>0.03989650722874424</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02348795769939196</v>
+        <v>0.0269521729834787</v>
       </c>
       <c r="O26" t="n">
-        <v>0.05445612045810715</v>
+        <v>0.07111908731715451</v>
       </c>
       <c r="P26" t="n">
-        <v>0.007141579834520253</v>
+        <v>0.008704220900593638</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.04652107540239633</v>
+        <v>0.0651919136780582</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0249363911580038</v>
+        <v>0.0316513465288055</v>
       </c>
       <c r="S26" t="n">
-        <v>0.03280734865214319</v>
+        <v>0.01758687762717396</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04557236872503761</v>
+        <v>0.07677540061369791</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04212799614258195</v>
+        <v>0.03903046865920878</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0510063167460112</v>
+        <v>0.02610422751778499</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03955316120399555</v>
+        <v>0.02185820700477068</v>
       </c>
       <c r="X26" t="n">
-        <v>0.008246013127768854</v>
+        <v>0.03802407435509823</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06369901053547856</v>
+        <v>0.02785390746599158</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01740849388840496</v>
+        <v>0.01607794660141065</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03029885292738389</v>
+        <v>0.03209940407342374</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.06322229278135137</v>
+        <v>0.04611109773596225</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02367451377845419</v>
+        <v>0.07398124049771242</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.05859436687071244</v>
+        <v>0.06061653190679291</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0540985338308452</v>
+        <v>0.06166155244358921</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.008249597427233564</v>
+        <v>0.02923252421914152</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.05885371620506905</v>
+        <v>0.067408618408727</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2184439870437024</v>
+        <v>0.1892841667878095</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.7235915839315218</v>
+        <v>0.1114755390200217</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06339654179354193</v>
+        <v>0.05053358963665687</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08149294217372312</v>
+        <v>0.05118844592801915</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02606944169519866</v>
+        <v>0.05452916895257139</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07208016064092547</v>
+        <v>0.02022192335853981</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0005618834662892639</v>
+        <v>0.01189237208612723</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07426898921237698</v>
+        <v>0.002552880700514535</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02171458570503149</v>
+        <v>0.05051688970339936</v>
       </c>
       <c r="M27" t="n">
-        <v>0.006266586331169544</v>
+        <v>0.05833624062895525</v>
       </c>
       <c r="N27" t="n">
-        <v>0.009760190113221148</v>
+        <v>0.0432622789173886</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01763604571998388</v>
+        <v>0.008026595472556589</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03639345004375009</v>
+        <v>0.01267430313701269</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.04067079565033412</v>
+        <v>0.02481475623823088</v>
       </c>
       <c r="R27" t="n">
-        <v>0.006839684777676869</v>
+        <v>0.01229028460904679</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01807624122588962</v>
+        <v>0.05624853702759355</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02641217256950934</v>
+        <v>0.0004621885845443553</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06886845247373524</v>
+        <v>0.04389080846374852</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01979455646313544</v>
+        <v>0.03042636379761924</v>
       </c>
       <c r="W27" t="n">
-        <v>0.05115524085866086</v>
+        <v>0.04550265380386299</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01868715298090396</v>
+        <v>0.007256677943126072</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07687291624623259</v>
+        <v>0.05914936132276669</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.07300173017901691</v>
+        <v>0.06190313009089322</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.03607995462980358</v>
+        <v>0.05008339897290959</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.07231145127761726</v>
+        <v>0.05217312975733165</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.01060556283229158</v>
+        <v>0.02990386267057966</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.01546298357630475</v>
+        <v>0.05208240687642221</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.008982835577374056</v>
+        <v>0.01140315957743567</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.02247619877780315</v>
+        <v>0.04167915389059739</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.02406125300849907</v>
+        <v>0.05699543785154997</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2387531187765224</v>
+        <v>0.2290079342876671</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1258080561642049</v>
+        <v>0.1288370623792015</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03720074538461145</v>
+        <v>0.0196499769193681</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01474106431095742</v>
+        <v>0.04892777033388449</v>
       </c>
       <c r="H28" t="n">
-        <v>0.009525793852679303</v>
+        <v>0.002472914194770905</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01427696771981379</v>
+        <v>0.01010743300981941</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03048330732005189</v>
+        <v>0.01224247021213365</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0137747908302948</v>
+        <v>0.0595966112319721</v>
       </c>
       <c r="L28" t="n">
-        <v>0.006418864306859421</v>
+        <v>0.008972565951243457</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0266679876109972</v>
+        <v>0.06846735174898359</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0414950717877501</v>
+        <v>0.04112612730172537</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0083547109887087</v>
+        <v>0.06887435760164606</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0682604999553337</v>
+        <v>0.02090979101673463</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.06519979013458325</v>
+        <v>0.03386099079892617</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06088926153290734</v>
+        <v>0.03456338121957585</v>
       </c>
       <c r="S28" t="n">
-        <v>0.004426965033288937</v>
+        <v>0.02448477685061699</v>
       </c>
       <c r="T28" t="n">
-        <v>0.06688260625196667</v>
+        <v>0.0534460984663708</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04509714287003682</v>
+        <v>0.01820479984696151</v>
       </c>
       <c r="V28" t="n">
-        <v>0.06908501927860639</v>
+        <v>0.05253110544215901</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06354256451445704</v>
+        <v>0.06399900845734789</v>
       </c>
       <c r="X28" t="n">
-        <v>0.06536121486446742</v>
+        <v>0.04325601894995755</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.06811605566412095</v>
+        <v>0.02642697356713938</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03290134137961252</v>
+        <v>0.06608274440377437</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.009169359241592456</v>
+        <v>0.001030902919415483</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.05221230961447373</v>
+        <v>0.05208398204067621</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.00473181499476074</v>
+        <v>0.006088535231397836</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.03404055675435297</v>
+        <v>0.07229644778802097</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.06190525563298579</v>
+        <v>0.04618007085714276</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.007319518510683095</v>
+        <v>0.002546691988426523</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0179194196590462</v>
+        <v>0.04157010164980898</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.0597620589347017</v>
+        <v>0.0652080022873248</v>
       </c>
     </row>
     <row r="29">
@@ -3590,97 +3590,97 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1380347212882275</v>
+        <v>0.1339388698917571</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06773374617356212</v>
+        <v>0.06629449845566829</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03441966102922087</v>
+        <v>0.05333843386820097</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05727174853727534</v>
+        <v>0.05487624138855533</v>
       </c>
       <c r="I29" t="n">
-        <v>0.001466247255491638</v>
+        <v>0.01121367622304155</v>
       </c>
       <c r="J29" t="n">
-        <v>0.05106996988928562</v>
+        <v>0.06199167385144854</v>
       </c>
       <c r="K29" t="n">
-        <v>0.003059705246305382</v>
+        <v>0.001127038419019739</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03256312303325477</v>
+        <v>0.01721959356873365</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01693672395393163</v>
+        <v>0.03960024241355105</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01053911714470198</v>
+        <v>0.02577794192014421</v>
       </c>
       <c r="O29" t="n">
-        <v>0.007723230309093393</v>
+        <v>0.02638109628749849</v>
       </c>
       <c r="P29" t="n">
-        <v>0.06666557332607374</v>
+        <v>0.02521580765486421</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0003017227530540903</v>
+        <v>0.06690783879141708</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03162277821604018</v>
+        <v>0.02207045803578602</v>
       </c>
       <c r="S29" t="n">
-        <v>0.06413897758379172</v>
+        <v>0.04416934889862865</v>
       </c>
       <c r="T29" t="n">
-        <v>0.05332879444182666</v>
+        <v>0.06072236244609536</v>
       </c>
       <c r="U29" t="n">
-        <v>0.009650620705742206</v>
+        <v>0.007033563437152329</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02938156737056587</v>
+        <v>0.02798977996117998</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0421181675897592</v>
+        <v>0.06537260235678249</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01498628704083348</v>
+        <v>0.009619933681368251</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02763684755630116</v>
+        <v>0.06794408480144427</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.07401645339731658</v>
+        <v>0.05650721765973187</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.01103073709438007</v>
+        <v>0.001506139364558261</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.08177920809281873</v>
+        <v>0.05371796138112323</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.003894883802526875</v>
+        <v>0.001015152150933549</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.04966718082386248</v>
+        <v>0.01359533514104271</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.07323605192309232</v>
+        <v>0.05903818451130554</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.01505710126786062</v>
+        <v>0.009856238251290792</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.06870377444203121</v>
+        <v>0.04989755507943368</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.08969102216433837</v>
+        <v>0.06922626576626248</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>